--- a/data/Info_BDApnea_QuironMalaga.xlsx
+++ b/data/Info_BDApnea_QuironMalaga.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73F3927-BFD2-460F-9626-970789FC1185}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E6ABBF-77CD-496D-84A3-9B313C9C49B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8372" uniqueCount="2088">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8372" uniqueCount="2087">
   <si>
     <t>Patient</t>
   </si>
@@ -2875,9 +2874,6 @@
   </si>
   <si>
     <t>QMH328</t>
-  </si>
-  <si>
-    <t>si (poco)</t>
   </si>
   <si>
     <t>P0321</t>
@@ -6871,9 +6867,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB874"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A792" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B803" sqref="B803"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A315" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P322" sqref="P322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6964,25 +6960,25 @@
         <v>33</v>
       </c>
       <c r="V1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="W1" t="s">
         <v>1100</v>
       </c>
-      <c r="W1" t="s">
-        <v>1101</v>
-      </c>
       <c r="X1" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="Y1" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="Z1" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="AA1" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="AB1" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
@@ -15341,7 +15337,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="J136">
         <v>-1</v>
@@ -19008,7 +19004,7 @@
         <v>568</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="C195" t="s">
         <v>58</v>
@@ -19442,7 +19438,7 @@
         <v>582</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="C202" t="s">
         <v>58</v>
@@ -26717,7 +26713,7 @@
         <v>46</v>
       </c>
       <c r="P321" t="s">
-        <v>936</v>
+        <v>602</v>
       </c>
       <c r="Q321" t="s">
         <v>5</v>
@@ -26737,10 +26733,10 @@
     </row>
     <row r="322" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A322" s="5" t="s">
+        <v>936</v>
+      </c>
+      <c r="B322" s="5" t="s">
         <v>937</v>
-      </c>
-      <c r="B322" s="5" t="s">
-        <v>938</v>
       </c>
       <c r="C322" s="5" t="s">
         <v>58</v>
@@ -26758,7 +26754,7 @@
         <v>11</v>
       </c>
       <c r="I322" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="K322">
         <v>87</v>
@@ -26791,15 +26787,15 @@
         <v>25</v>
       </c>
       <c r="U322" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="323" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A323" s="5" t="s">
+        <v>940</v>
+      </c>
+      <c r="B323" s="5" t="s">
         <v>941</v>
-      </c>
-      <c r="B323" s="5" t="s">
-        <v>942</v>
       </c>
       <c r="C323" s="5" t="s">
         <v>58</v>
@@ -26856,15 +26852,15 @@
         <v>25</v>
       </c>
       <c r="U323" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="324" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A324" s="5" t="s">
+        <v>943</v>
+      </c>
+      <c r="B324" s="5" t="s">
         <v>944</v>
-      </c>
-      <c r="B324" s="5" t="s">
-        <v>945</v>
       </c>
       <c r="C324" s="5" t="s">
         <v>58</v>
@@ -26909,7 +26905,7 @@
         <v>5</v>
       </c>
       <c r="R324" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="S324">
         <v>445</v>
@@ -26918,15 +26914,15 @@
         <v>25</v>
       </c>
       <c r="U324" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="325" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A325" s="5" t="s">
+        <v>947</v>
+      </c>
+      <c r="B325" s="5" t="s">
         <v>948</v>
-      </c>
-      <c r="B325" s="5" t="s">
-        <v>949</v>
       </c>
       <c r="C325" s="5" t="s">
         <v>58</v>
@@ -26985,10 +26981,10 @@
     </row>
     <row r="326" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A326" s="5" t="s">
+        <v>949</v>
+      </c>
+      <c r="B326" s="5" t="s">
         <v>950</v>
-      </c>
-      <c r="B326" s="5" t="s">
-        <v>951</v>
       </c>
       <c r="C326" s="5" t="s">
         <v>58</v>
@@ -27039,15 +27035,15 @@
         <v>25</v>
       </c>
       <c r="U326" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="327" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A327" s="5" t="s">
+        <v>952</v>
+      </c>
+      <c r="B327" s="5" t="s">
         <v>953</v>
-      </c>
-      <c r="B327" s="5" t="s">
-        <v>954</v>
       </c>
       <c r="C327" s="5" t="s">
         <v>58</v>
@@ -27092,7 +27088,7 @@
         <v>5</v>
       </c>
       <c r="R327" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="S327">
         <v>422</v>
@@ -27101,15 +27097,15 @@
         <v>25</v>
       </c>
       <c r="U327" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="328" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A328" s="5" t="s">
+        <v>956</v>
+      </c>
+      <c r="B328" s="5" t="s">
         <v>957</v>
-      </c>
-      <c r="B328" s="5" t="s">
-        <v>958</v>
       </c>
       <c r="C328" s="5" t="s">
         <v>58</v>
@@ -27165,10 +27161,10 @@
     </row>
     <row r="329" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A329" s="5" t="s">
+        <v>958</v>
+      </c>
+      <c r="B329" s="5" t="s">
         <v>959</v>
-      </c>
-      <c r="B329" s="5" t="s">
-        <v>960</v>
       </c>
       <c r="C329" s="5" t="s">
         <v>58</v>
@@ -27224,10 +27220,10 @@
     </row>
     <row r="330" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A330" s="5" t="s">
+        <v>960</v>
+      </c>
+      <c r="B330" s="5" t="s">
         <v>961</v>
-      </c>
-      <c r="B330" s="5" t="s">
-        <v>962</v>
       </c>
       <c r="C330" s="5" t="s">
         <v>58</v>
@@ -27286,10 +27282,10 @@
     </row>
     <row r="331" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A331" s="5" t="s">
+        <v>962</v>
+      </c>
+      <c r="B331" s="5" t="s">
         <v>963</v>
-      </c>
-      <c r="B331" s="5" t="s">
-        <v>964</v>
       </c>
       <c r="C331" s="5" t="s">
         <v>58</v>
@@ -27331,7 +27327,7 @@
         <v>5</v>
       </c>
       <c r="R331" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="S331">
         <v>421</v>
@@ -27340,15 +27336,15 @@
         <v>25</v>
       </c>
       <c r="U331" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="332" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A332" s="5" t="s">
+        <v>966</v>
+      </c>
+      <c r="B332" s="5" t="s">
         <v>967</v>
-      </c>
-      <c r="B332" s="5" t="s">
-        <v>968</v>
       </c>
       <c r="C332" s="5" t="s">
         <v>58</v>
@@ -27393,7 +27389,7 @@
         <v>5</v>
       </c>
       <c r="R332" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="S332">
         <v>422</v>
@@ -27407,10 +27403,10 @@
     </row>
     <row r="333" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A333" s="4" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="C333" s="4" t="s">
         <v>58</v>
@@ -27447,7 +27443,7 @@
         <v>5</v>
       </c>
       <c r="R333" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="S333">
         <v>422</v>
@@ -27461,10 +27457,10 @@
     </row>
     <row r="334" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A334" s="5" t="s">
+        <v>971</v>
+      </c>
+      <c r="B334" s="5" t="s">
         <v>972</v>
-      </c>
-      <c r="B334" s="5" t="s">
-        <v>973</v>
       </c>
       <c r="C334" s="5" t="s">
         <v>58</v>
@@ -27485,7 +27481,7 @@
         <v>0</v>
       </c>
       <c r="I334" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="J334">
         <v>-1</v>
@@ -27526,10 +27522,10 @@
     </row>
     <row r="335" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A335" s="5" t="s">
+        <v>974</v>
+      </c>
+      <c r="B335" s="5" t="s">
         <v>975</v>
-      </c>
-      <c r="B335" s="5" t="s">
-        <v>976</v>
       </c>
       <c r="C335" s="5" t="s">
         <v>58</v>
@@ -27583,15 +27579,15 @@
         <v>25</v>
       </c>
       <c r="U335" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="336" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A336" s="5" t="s">
+        <v>977</v>
+      </c>
+      <c r="B336" s="10" t="s">
         <v>978</v>
-      </c>
-      <c r="B336" s="10" t="s">
-        <v>979</v>
       </c>
       <c r="C336" s="5" t="s">
         <v>58</v>
@@ -27636,7 +27632,7 @@
         <v>26</v>
       </c>
       <c r="R336" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="S336">
         <v>443</v>
@@ -27650,10 +27646,10 @@
     </row>
     <row r="337" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A337" s="5" t="s">
+        <v>980</v>
+      </c>
+      <c r="B337" s="5" t="s">
         <v>981</v>
-      </c>
-      <c r="B337" s="5" t="s">
-        <v>982</v>
       </c>
       <c r="C337" s="5" t="s">
         <v>58</v>
@@ -27715,10 +27711,10 @@
     </row>
     <row r="338" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A338" s="5" t="s">
+        <v>982</v>
+      </c>
+      <c r="B338" s="5" t="s">
         <v>983</v>
-      </c>
-      <c r="B338" s="5" t="s">
-        <v>984</v>
       </c>
       <c r="C338" s="5" t="s">
         <v>58</v>
@@ -27777,10 +27773,10 @@
     </row>
     <row r="339" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A339" s="5" t="s">
+        <v>984</v>
+      </c>
+      <c r="B339" s="5" t="s">
         <v>985</v>
-      </c>
-      <c r="B339" s="5" t="s">
-        <v>986</v>
       </c>
       <c r="C339" s="5" t="s">
         <v>58</v>
@@ -27834,15 +27830,15 @@
         <v>25</v>
       </c>
       <c r="U339" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="340" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A340" s="5" t="s">
+        <v>987</v>
+      </c>
+      <c r="B340" s="5" t="s">
         <v>988</v>
-      </c>
-      <c r="B340" s="5" t="s">
-        <v>989</v>
       </c>
       <c r="C340" s="5" t="s">
         <v>58</v>
@@ -27890,15 +27886,15 @@
         <v>25</v>
       </c>
       <c r="U340" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="341" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A341" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="B341" s="5" t="s">
         <v>991</v>
-      </c>
-      <c r="B341" s="5" t="s">
-        <v>992</v>
       </c>
       <c r="C341" s="5" t="s">
         <v>58</v>
@@ -27957,10 +27953,10 @@
     </row>
     <row r="342" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A342" s="5" t="s">
+        <v>992</v>
+      </c>
+      <c r="B342" s="5" t="s">
         <v>993</v>
-      </c>
-      <c r="B342" s="5" t="s">
-        <v>994</v>
       </c>
       <c r="C342" s="5" t="s">
         <v>58</v>
@@ -28006,7 +28002,7 @@
         <v>5</v>
       </c>
       <c r="R342" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="S342">
         <v>421</v>
@@ -28015,15 +28011,15 @@
         <v>25</v>
       </c>
       <c r="U342" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="343" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A343" s="5" t="s">
+        <v>996</v>
+      </c>
+      <c r="B343" s="5" t="s">
         <v>997</v>
-      </c>
-      <c r="B343" s="5" t="s">
-        <v>998</v>
       </c>
       <c r="C343" s="5" t="s">
         <v>58</v>
@@ -28068,7 +28064,7 @@
         <v>5</v>
       </c>
       <c r="R343" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="S343">
         <v>425</v>
@@ -28077,15 +28073,15 @@
         <v>25</v>
       </c>
       <c r="U343" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="344" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A344" s="5" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B344" s="5" t="s">
         <v>1001</v>
-      </c>
-      <c r="B344" s="5" t="s">
-        <v>1002</v>
       </c>
       <c r="C344" s="5" t="s">
         <v>58</v>
@@ -28103,7 +28099,7 @@
         <v>30</v>
       </c>
       <c r="I344" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="J344">
         <v>-1</v>
@@ -28130,7 +28126,7 @@
         <v>5</v>
       </c>
       <c r="R344" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="S344">
         <v>422</v>
@@ -28144,10 +28140,10 @@
     </row>
     <row r="345" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A345" s="5" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B345" s="5" t="s">
         <v>1005</v>
-      </c>
-      <c r="B345" s="5" t="s">
-        <v>1006</v>
       </c>
       <c r="C345" s="5" t="s">
         <v>58</v>
@@ -28168,7 +28164,7 @@
         <v>0</v>
       </c>
       <c r="I345" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="K345">
         <v>71</v>
@@ -28192,7 +28188,7 @@
         <v>5</v>
       </c>
       <c r="R345" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="S345">
         <v>421</v>
@@ -28206,10 +28202,10 @@
     </row>
     <row r="346" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A346" s="5" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B346" s="5" t="s">
         <v>1009</v>
-      </c>
-      <c r="B346" s="5" t="s">
-        <v>1010</v>
       </c>
       <c r="C346" s="5" t="s">
         <v>58</v>
@@ -28268,10 +28264,10 @@
     </row>
     <row r="347" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A347" s="5" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B347" s="5" t="s">
         <v>1011</v>
-      </c>
-      <c r="B347" s="5" t="s">
-        <v>1012</v>
       </c>
       <c r="C347" s="5" t="s">
         <v>58</v>
@@ -28333,10 +28329,10 @@
     </row>
     <row r="348" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A348" s="5" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B348" s="5" t="s">
         <v>1013</v>
-      </c>
-      <c r="B348" s="5" t="s">
-        <v>1014</v>
       </c>
       <c r="C348" s="5" t="s">
         <v>58</v>
@@ -28354,7 +28350,7 @@
         <v>0</v>
       </c>
       <c r="I348" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="K348">
         <v>98</v>
@@ -28378,7 +28374,7 @@
         <v>5</v>
       </c>
       <c r="R348" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="S348">
         <v>422</v>
@@ -28387,15 +28383,15 @@
         <v>25</v>
       </c>
       <c r="U348" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="349" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A349" s="5" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B349" s="5" t="s">
         <v>1017</v>
-      </c>
-      <c r="B349" s="5" t="s">
-        <v>1018</v>
       </c>
       <c r="C349" s="5" t="s">
         <v>58</v>
@@ -28440,7 +28436,7 @@
         <v>5</v>
       </c>
       <c r="R349" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="S349">
         <v>421</v>
@@ -28454,10 +28450,10 @@
     </row>
     <row r="350" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A350" s="5" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B350" s="5" t="s">
         <v>1020</v>
-      </c>
-      <c r="B350" s="5" t="s">
-        <v>1021</v>
       </c>
       <c r="C350" s="5" t="s">
         <v>58</v>
@@ -28502,7 +28498,7 @@
         <v>5</v>
       </c>
       <c r="R350" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="S350">
         <v>422</v>
@@ -28511,15 +28507,15 @@
         <v>25</v>
       </c>
       <c r="U350" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="351" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A351" s="5" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B351" s="5" t="s">
         <v>1024</v>
-      </c>
-      <c r="B351" s="5" t="s">
-        <v>1025</v>
       </c>
       <c r="C351" s="5" t="s">
         <v>58</v>
@@ -28537,7 +28533,7 @@
         <v>27</v>
       </c>
       <c r="I351" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="J351">
         <v>-1</v>
@@ -28573,15 +28569,15 @@
         <v>25</v>
       </c>
       <c r="U351" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="352" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A352" s="5" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B352" s="5" t="s">
         <v>1027</v>
-      </c>
-      <c r="B352" s="5" t="s">
-        <v>1028</v>
       </c>
       <c r="C352" s="5" t="s">
         <v>58</v>
@@ -28626,7 +28622,7 @@
         <v>5</v>
       </c>
       <c r="R352" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="S352">
         <v>422</v>
@@ -28640,10 +28636,10 @@
     </row>
     <row r="353" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A353" s="5" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B353" s="5" t="s">
         <v>1030</v>
-      </c>
-      <c r="B353" s="5" t="s">
-        <v>1031</v>
       </c>
       <c r="C353" s="5" t="s">
         <v>58</v>
@@ -28698,10 +28694,10 @@
     </row>
     <row r="354" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A354" s="5" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B354" s="5" t="s">
         <v>1032</v>
-      </c>
-      <c r="B354" s="5" t="s">
-        <v>1033</v>
       </c>
       <c r="C354" s="5" t="s">
         <v>58</v>
@@ -28760,10 +28756,10 @@
     </row>
     <row r="355" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A355" s="5" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B355" s="5" t="s">
         <v>1034</v>
-      </c>
-      <c r="B355" s="5" t="s">
-        <v>1035</v>
       </c>
       <c r="C355" s="5" t="s">
         <v>58</v>
@@ -28817,15 +28813,15 @@
         <v>25</v>
       </c>
       <c r="U355" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="356" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A356" s="5" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B356" s="5" t="s">
         <v>1037</v>
-      </c>
-      <c r="B356" s="5" t="s">
-        <v>1038</v>
       </c>
       <c r="C356" s="5" t="s">
         <v>58</v>
@@ -28870,7 +28866,7 @@
         <v>5</v>
       </c>
       <c r="R356" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="S356">
         <v>423</v>
@@ -28884,10 +28880,10 @@
     </row>
     <row r="357" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A357" s="5" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B357" s="5" t="s">
         <v>1040</v>
-      </c>
-      <c r="B357" s="5" t="s">
-        <v>1041</v>
       </c>
       <c r="C357" s="5" t="s">
         <v>58</v>
@@ -28941,15 +28937,15 @@
         <v>25</v>
       </c>
       <c r="U357" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="358" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A358" s="5" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B358" s="5" t="s">
         <v>1042</v>
-      </c>
-      <c r="B358" s="5" t="s">
-        <v>1043</v>
       </c>
       <c r="C358" s="5" t="s">
         <v>58</v>
@@ -28994,7 +28990,7 @@
         <v>5</v>
       </c>
       <c r="R358" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="S358">
         <v>423</v>
@@ -29008,10 +29004,10 @@
     </row>
     <row r="359" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A359" s="5" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B359" s="5" t="s">
         <v>1045</v>
-      </c>
-      <c r="B359" s="5" t="s">
-        <v>1046</v>
       </c>
       <c r="C359" s="5" t="s">
         <v>58</v>
@@ -29059,7 +29055,7 @@
         <v>5</v>
       </c>
       <c r="R359" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="S359">
         <v>422</v>
@@ -29068,15 +29064,15 @@
         <v>25</v>
       </c>
       <c r="U359" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="360" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A360" s="5" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B360" s="5" t="s">
         <v>1049</v>
-      </c>
-      <c r="B360" s="5" t="s">
-        <v>1050</v>
       </c>
       <c r="C360" s="5" t="s">
         <v>58</v>
@@ -29097,7 +29093,7 @@
         <v>0</v>
       </c>
       <c r="I360" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="J360">
         <v>-1</v>
@@ -29124,7 +29120,7 @@
         <v>5</v>
       </c>
       <c r="R360" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="S360">
         <v>421</v>
@@ -29133,15 +29129,15 @@
         <v>25</v>
       </c>
       <c r="U360" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="361" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A361" s="5" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B361" s="5" t="s">
         <v>1053</v>
-      </c>
-      <c r="B361" s="5" t="s">
-        <v>1054</v>
       </c>
       <c r="C361" s="5" t="s">
         <v>58</v>
@@ -29159,7 +29155,7 @@
         <v>21</v>
       </c>
       <c r="I361" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="J361">
         <v>-1</v>
@@ -29186,7 +29182,7 @@
         <v>5</v>
       </c>
       <c r="R361" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="S361">
         <v>422</v>
@@ -29200,10 +29196,10 @@
     </row>
     <row r="362" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A362" s="5" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B362" s="5" t="s">
         <v>1057</v>
-      </c>
-      <c r="B362" s="5" t="s">
-        <v>1058</v>
       </c>
       <c r="C362" s="5" t="s">
         <v>58</v>
@@ -29248,7 +29244,7 @@
         <v>5</v>
       </c>
       <c r="R362" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="S362">
         <v>421</v>
@@ -29257,15 +29253,15 @@
         <v>25</v>
       </c>
       <c r="U362" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="363" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A363" s="5" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B363" s="5" t="s">
         <v>1062</v>
-      </c>
-      <c r="B363" s="5" t="s">
-        <v>1063</v>
       </c>
       <c r="C363" s="5" t="s">
         <v>58</v>
@@ -29286,7 +29282,7 @@
         <v>51</v>
       </c>
       <c r="I363" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="J363">
         <v>-1</v>
@@ -29322,15 +29318,15 @@
         <v>25</v>
       </c>
       <c r="U363" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="364" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A364" s="5" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B364" t="s">
         <v>1065</v>
-      </c>
-      <c r="B364" t="s">
-        <v>1066</v>
       </c>
       <c r="C364" s="5" t="s">
         <v>58</v>
@@ -29389,10 +29385,10 @@
     </row>
     <row r="365" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A365" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B365" t="s">
         <v>1067</v>
-      </c>
-      <c r="B365" t="s">
-        <v>1068</v>
       </c>
       <c r="C365" s="5" t="s">
         <v>58</v>
@@ -29446,15 +29442,15 @@
         <v>25</v>
       </c>
       <c r="U365" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="366" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A366" s="5" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B366" t="s">
         <v>1070</v>
-      </c>
-      <c r="B366" t="s">
-        <v>1071</v>
       </c>
       <c r="C366" s="5" t="s">
         <v>58</v>
@@ -29513,10 +29509,10 @@
     </row>
     <row r="367" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A367" s="5" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B367" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C367" s="5" t="s">
         <v>58</v>
@@ -29575,10 +29571,10 @@
     </row>
     <row r="368" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A368" s="5" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B368" t="s">
         <v>1073</v>
-      </c>
-      <c r="B368" t="s">
-        <v>1074</v>
       </c>
       <c r="C368" s="5" t="s">
         <v>58</v>
@@ -29637,10 +29633,10 @@
     </row>
     <row r="369" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A369" s="5" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B369" t="s">
         <v>1075</v>
-      </c>
-      <c r="B369" t="s">
-        <v>1076</v>
       </c>
       <c r="C369" s="5" t="s">
         <v>58</v>
@@ -29702,10 +29698,10 @@
     </row>
     <row r="370" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A370" s="5" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B370" t="s">
         <v>1077</v>
-      </c>
-      <c r="B370" t="s">
-        <v>1078</v>
       </c>
       <c r="C370" s="5" t="s">
         <v>58</v>
@@ -29723,7 +29719,7 @@
         <v>6.9</v>
       </c>
       <c r="I370" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="J370">
         <v>-1</v>
@@ -29750,7 +29746,7 @@
         <v>5</v>
       </c>
       <c r="R370" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="S370">
         <v>421</v>
@@ -29764,10 +29760,10 @@
     </row>
     <row r="371" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A371" s="5" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B371" t="s">
         <v>1080</v>
-      </c>
-      <c r="B371" t="s">
-        <v>1081</v>
       </c>
       <c r="C371" s="5" t="s">
         <v>58</v>
@@ -29788,7 +29784,7 @@
         <v>-1</v>
       </c>
       <c r="J371" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="K371">
         <v>72</v>
@@ -29812,7 +29808,7 @@
         <v>5</v>
       </c>
       <c r="R371" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="S371">
         <v>421</v>
@@ -29826,10 +29822,10 @@
     </row>
     <row r="372" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A372" s="5" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B372" t="s">
         <v>1084</v>
-      </c>
-      <c r="B372" t="s">
-        <v>1085</v>
       </c>
       <c r="C372" s="5" t="s">
         <v>58</v>
@@ -29850,7 +29846,7 @@
         <v>-1</v>
       </c>
       <c r="J372" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="K372">
         <v>86</v>
@@ -29874,7 +29870,7 @@
         <v>5</v>
       </c>
       <c r="R372" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="S372">
         <v>445</v>
@@ -29888,10 +29884,10 @@
     </row>
     <row r="373" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A373" s="5" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B373" t="s">
         <v>1088</v>
-      </c>
-      <c r="B373" t="s">
-        <v>1089</v>
       </c>
       <c r="C373" s="5" t="s">
         <v>58</v>
@@ -29950,10 +29946,10 @@
     </row>
     <row r="374" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A374" s="5" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B374" t="s">
         <v>1090</v>
-      </c>
-      <c r="B374" t="s">
-        <v>1091</v>
       </c>
       <c r="C374" s="5" t="s">
         <v>58</v>
@@ -29998,7 +29994,7 @@
         <v>5</v>
       </c>
       <c r="R374" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="S374">
         <v>421</v>
@@ -30007,15 +30003,15 @@
         <v>25</v>
       </c>
       <c r="U374" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="375" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A375" s="5" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B375" t="s">
         <v>1094</v>
-      </c>
-      <c r="B375" t="s">
-        <v>1095</v>
       </c>
       <c r="C375" s="5" t="s">
         <v>58</v>
@@ -30074,10 +30070,10 @@
     </row>
     <row r="376" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A376" s="12" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B376" s="12" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C376" s="12" t="s">
         <v>58</v>
@@ -30118,7 +30114,7 @@
         <v>5</v>
       </c>
       <c r="R376" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="S376">
         <v>421</v>
@@ -30132,10 +30128,10 @@
     </row>
     <row r="377" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A377" s="5" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B377" t="s">
         <v>1097</v>
-      </c>
-      <c r="B377" t="s">
-        <v>1098</v>
       </c>
       <c r="C377" s="5" t="s">
         <v>58</v>
@@ -30194,10 +30190,10 @@
     </row>
     <row r="378" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A378" s="5" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B378" s="12" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C378" s="12" t="s">
         <v>58</v>
@@ -30263,10 +30259,10 @@
     </row>
     <row r="379" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A379" s="5" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B379" t="s">
         <v>1103</v>
-      </c>
-      <c r="B379" t="s">
-        <v>1104</v>
       </c>
       <c r="C379" s="5" t="s">
         <v>58</v>
@@ -30320,7 +30316,7 @@
         <v>25</v>
       </c>
       <c r="U379" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="V379">
         <v>10</v>
@@ -30331,10 +30327,10 @@
     </row>
     <row r="380" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A380" s="5" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B380" s="8" t="s">
         <v>1106</v>
-      </c>
-      <c r="B380" s="8" t="s">
-        <v>1107</v>
       </c>
       <c r="C380" s="8" t="s">
         <v>58</v>
@@ -30393,10 +30389,10 @@
     </row>
     <row r="381" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A381" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B381" s="4" t="s">
         <v>1108</v>
-      </c>
-      <c r="B381" s="4" t="s">
-        <v>1109</v>
       </c>
       <c r="C381" s="4" t="s">
         <v>58</v>
@@ -30417,13 +30413,13 @@
         <v>0</v>
       </c>
       <c r="I381" s="4" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="J381" s="5">
         <v>-1</v>
       </c>
       <c r="K381" s="11" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="L381" s="11"/>
       <c r="M381" s="5"/>
@@ -30440,7 +30436,7 @@
         <v>5</v>
       </c>
       <c r="R381" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="S381">
         <v>421</v>
@@ -30449,7 +30445,7 @@
         <v>25</v>
       </c>
       <c r="U381" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="V381">
         <v>10.5</v>
@@ -30460,10 +30456,10 @@
     </row>
     <row r="382" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A382" s="5" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B382" t="s">
         <v>1111</v>
-      </c>
-      <c r="B382" t="s">
-        <v>1112</v>
       </c>
       <c r="C382" t="s">
         <v>58</v>
@@ -30528,10 +30524,10 @@
     </row>
     <row r="383" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A383" s="5" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B383" t="s">
         <v>1113</v>
-      </c>
-      <c r="B383" t="s">
-        <v>1114</v>
       </c>
       <c r="C383" t="s">
         <v>58</v>
@@ -30579,7 +30575,7 @@
         <v>5</v>
       </c>
       <c r="R383" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="S383">
         <v>422</v>
@@ -30599,10 +30595,10 @@
     </row>
     <row r="384" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A384" s="5" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B384" t="s">
         <v>1116</v>
-      </c>
-      <c r="B384" t="s">
-        <v>1117</v>
       </c>
       <c r="C384" t="s">
         <v>58</v>
@@ -30623,7 +30619,7 @@
         <v>-1</v>
       </c>
       <c r="J384" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="K384">
         <v>69</v>
@@ -30667,10 +30663,10 @@
     </row>
     <row r="385" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A385" s="5" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B385" t="s">
         <v>1119</v>
-      </c>
-      <c r="B385" t="s">
-        <v>1120</v>
       </c>
       <c r="C385" t="s">
         <v>58</v>
@@ -30724,7 +30720,7 @@
         <v>25</v>
       </c>
       <c r="U385" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="V385">
         <v>10.369</v>
@@ -30735,10 +30731,10 @@
     </row>
     <row r="386" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A386" s="5" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B386" t="s">
         <v>1121</v>
-      </c>
-      <c r="B386" t="s">
-        <v>1122</v>
       </c>
       <c r="C386" t="s">
         <v>58</v>
@@ -30803,10 +30799,10 @@
     </row>
     <row r="387" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A387" s="5" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B387" t="s">
         <v>1123</v>
-      </c>
-      <c r="B387" t="s">
-        <v>1124</v>
       </c>
       <c r="C387" t="s">
         <v>58</v>
@@ -30871,10 +30867,10 @@
     </row>
     <row r="388" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A388" s="5" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B388" t="s">
         <v>1125</v>
-      </c>
-      <c r="B388" t="s">
-        <v>1126</v>
       </c>
       <c r="C388" t="s">
         <v>58</v>
@@ -30895,7 +30891,7 @@
         <v>53</v>
       </c>
       <c r="I388" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="J388">
         <v>-1</v>
@@ -30942,10 +30938,10 @@
     </row>
     <row r="389" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A389" s="5" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B389" t="s">
         <v>1127</v>
-      </c>
-      <c r="B389" t="s">
-        <v>1128</v>
       </c>
       <c r="C389" t="s">
         <v>58</v>
@@ -30990,7 +30986,7 @@
         <v>5</v>
       </c>
       <c r="R389" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="S389">
         <v>422</v>
@@ -31010,10 +31006,10 @@
     </row>
     <row r="390" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A390" s="5" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B390" s="5" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C390" s="5" t="s">
         <v>58</v>
@@ -31059,7 +31055,7 @@
         <v>5</v>
       </c>
       <c r="R390" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="S390">
         <v>422</v>
@@ -31079,10 +31075,10 @@
     </row>
     <row r="391" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A391" s="5" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="C391" t="s">
         <v>58</v>
@@ -31147,10 +31143,10 @@
     </row>
     <row r="392" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A392" s="5" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B392" t="s">
         <v>1133</v>
-      </c>
-      <c r="B392" t="s">
-        <v>1134</v>
       </c>
       <c r="C392" t="s">
         <v>58</v>
@@ -31195,7 +31191,7 @@
         <v>5</v>
       </c>
       <c r="R392" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="S392">
         <v>421</v>
@@ -31215,10 +31211,10 @@
     </row>
     <row r="393" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A393" s="12" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B393" s="12" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C393" s="12" t="s">
         <v>58</v>
@@ -31260,7 +31256,7 @@
         <v>5</v>
       </c>
       <c r="R393" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="S393">
         <v>422</v>
@@ -31269,7 +31265,7 @@
         <v>25</v>
       </c>
       <c r="U393" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="V393">
         <v>9.1029999999999998</v>
@@ -31280,10 +31276,10 @@
     </row>
     <row r="394" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A394" s="5" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B394" t="s">
         <v>1140</v>
-      </c>
-      <c r="B394" t="s">
-        <v>1141</v>
       </c>
       <c r="C394" t="s">
         <v>58</v>
@@ -31348,10 +31344,10 @@
     </row>
     <row r="395" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A395" s="5" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B395" t="s">
         <v>1142</v>
-      </c>
-      <c r="B395" t="s">
-        <v>1143</v>
       </c>
       <c r="C395" t="s">
         <v>58</v>
@@ -31369,7 +31365,7 @@
         <v>25</v>
       </c>
       <c r="I395" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="J395">
         <v>-1</v>
@@ -31416,10 +31412,10 @@
     </row>
     <row r="396" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A396" s="5" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B396" t="s">
         <v>1144</v>
-      </c>
-      <c r="B396" t="s">
-        <v>1145</v>
       </c>
       <c r="C396" t="s">
         <v>58</v>
@@ -31437,7 +31433,7 @@
         <v>18.600000000000001</v>
       </c>
       <c r="I396" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="J396">
         <v>-1</v>
@@ -31473,7 +31469,7 @@
         <v>25</v>
       </c>
       <c r="U396" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="V396">
         <v>9.3160000000000007</v>
@@ -31484,10 +31480,10 @@
     </row>
     <row r="397" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A397" s="5" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B397" t="s">
         <v>1147</v>
-      </c>
-      <c r="B397" t="s">
-        <v>1148</v>
       </c>
       <c r="C397" t="s">
         <v>58</v>
@@ -31508,7 +31504,7 @@
         <v>0</v>
       </c>
       <c r="I397" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="J397">
         <v>-1</v>
@@ -31535,7 +31531,7 @@
         <v>5</v>
       </c>
       <c r="R397" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="S397">
         <v>421</v>
@@ -31544,7 +31540,7 @@
         <v>25</v>
       </c>
       <c r="U397" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="V397">
         <v>8.8840000000000003</v>
@@ -31555,10 +31551,10 @@
     </row>
     <row r="398" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A398" s="5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B398" t="s">
         <v>1151</v>
-      </c>
-      <c r="B398" t="s">
-        <v>1152</v>
       </c>
       <c r="C398" t="s">
         <v>58</v>
@@ -31579,7 +31575,7 @@
         <v>13.8</v>
       </c>
       <c r="I398" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="J398">
         <v>-1</v>
@@ -31615,7 +31611,7 @@
         <v>25</v>
       </c>
       <c r="U398" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="V398">
         <v>9.8450000000000006</v>
@@ -31626,10 +31622,10 @@
     </row>
     <row r="399" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A399" s="5" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B399" t="s">
         <v>1154</v>
-      </c>
-      <c r="B399" t="s">
-        <v>1155</v>
       </c>
       <c r="C399" t="s">
         <v>58</v>
@@ -31694,10 +31690,10 @@
     </row>
     <row r="400" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A400" s="5" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B400" t="s">
         <v>1156</v>
-      </c>
-      <c r="B400" t="s">
-        <v>1157</v>
       </c>
       <c r="C400" t="s">
         <v>58</v>
@@ -31742,7 +31738,7 @@
         <v>5</v>
       </c>
       <c r="R400" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="S400">
         <v>421</v>
@@ -31762,10 +31758,10 @@
     </row>
     <row r="401" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A401" s="5" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B401" s="12" t="s">
         <v>1159</v>
-      </c>
-      <c r="B401" s="12" t="s">
-        <v>1160</v>
       </c>
       <c r="C401" t="s">
         <v>58</v>
@@ -31786,7 +31782,7 @@
         <v>32</v>
       </c>
       <c r="I401" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="J401">
         <v>-1</v>
@@ -31813,7 +31809,7 @@
         <v>5</v>
       </c>
       <c r="R401" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="S401">
         <v>421</v>
@@ -31833,10 +31829,10 @@
     </row>
     <row r="402" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A402" s="5" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B402" s="5" t="s">
         <v>1162</v>
-      </c>
-      <c r="B402" s="5" t="s">
-        <v>1163</v>
       </c>
       <c r="C402" s="5" t="s">
         <v>58</v>
@@ -31882,7 +31878,7 @@
         <v>5</v>
       </c>
       <c r="R402" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="S402">
         <v>422</v>
@@ -31902,10 +31898,10 @@
     </row>
     <row r="403" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A403" s="12" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B403" s="12" t="s">
         <v>1165</v>
-      </c>
-      <c r="B403" s="12" t="s">
-        <v>1166</v>
       </c>
       <c r="C403" s="12" t="s">
         <v>58</v>
@@ -31971,10 +31967,10 @@
     </row>
     <row r="404" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A404" s="5" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B404" t="s">
         <v>1167</v>
-      </c>
-      <c r="B404" t="s">
-        <v>1168</v>
       </c>
       <c r="C404" t="s">
         <v>58</v>
@@ -32040,10 +32036,10 @@
     </row>
     <row r="405" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A405" s="5" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B405" t="s">
         <v>1169</v>
-      </c>
-      <c r="B405" t="s">
-        <v>1170</v>
       </c>
       <c r="C405" t="s">
         <v>58</v>
@@ -32064,7 +32060,7 @@
         <v>53</v>
       </c>
       <c r="I405" s="5" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="J405" s="5">
         <v>-1</v>
@@ -32091,7 +32087,7 @@
         <v>5</v>
       </c>
       <c r="R405" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="S405">
         <v>445</v>
@@ -32111,10 +32107,10 @@
     </row>
     <row r="406" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A406" s="5" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B406" t="s">
         <v>1172</v>
-      </c>
-      <c r="B406" t="s">
-        <v>1173</v>
       </c>
       <c r="C406" t="s">
         <v>58</v>
@@ -32182,10 +32178,10 @@
     </row>
     <row r="407" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A407" s="5" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B407" t="s">
         <v>1174</v>
-      </c>
-      <c r="B407" t="s">
-        <v>1175</v>
       </c>
       <c r="C407" t="s">
         <v>58</v>
@@ -32253,10 +32249,10 @@
     </row>
     <row r="408" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A408" s="5" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B408" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="C408" t="s">
         <v>58</v>
@@ -32302,7 +32298,7 @@
         <v>5</v>
       </c>
       <c r="R408" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="S408">
         <v>422</v>
@@ -32322,10 +32318,10 @@
     </row>
     <row r="409" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A409" s="5" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B409" t="s">
         <v>1183</v>
-      </c>
-      <c r="B409" t="s">
-        <v>1184</v>
       </c>
       <c r="C409" t="s">
         <v>58</v>
@@ -32384,10 +32380,10 @@
     </row>
     <row r="410" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A410" s="5" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B410" t="s">
         <v>1185</v>
-      </c>
-      <c r="B410" t="s">
-        <v>1186</v>
       </c>
       <c r="C410" t="s">
         <v>58</v>
@@ -32405,7 +32401,7 @@
         <v>11</v>
       </c>
       <c r="I410" s="5" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="K410">
         <v>117</v>
@@ -32449,10 +32445,10 @@
     </row>
     <row r="411" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A411" s="5" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B411" t="s">
         <v>1187</v>
-      </c>
-      <c r="B411" t="s">
-        <v>1188</v>
       </c>
       <c r="C411" t="s">
         <v>58</v>
@@ -32511,10 +32507,10 @@
     </row>
     <row r="412" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A412" s="5" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B412" t="s">
         <v>1189</v>
-      </c>
-      <c r="B412" t="s">
-        <v>1190</v>
       </c>
       <c r="C412" t="s">
         <v>58</v>
@@ -32559,7 +32555,7 @@
         <v>5</v>
       </c>
       <c r="R412" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="S412">
         <v>423</v>
@@ -32568,7 +32564,7 @@
         <v>25</v>
       </c>
       <c r="U412" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="V412">
         <v>8.8620000000000001</v>
@@ -32579,10 +32575,10 @@
     </row>
     <row r="413" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A413" s="5" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B413" t="s">
         <v>1193</v>
-      </c>
-      <c r="B413" t="s">
-        <v>1194</v>
       </c>
       <c r="C413" t="s">
         <v>58</v>
@@ -32630,7 +32626,7 @@
         <v>25</v>
       </c>
       <c r="U413" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="V413">
         <v>10.183999999999999</v>
@@ -32641,10 +32637,10 @@
     </row>
     <row r="414" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A414" s="5" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B414" t="s">
         <v>1196</v>
-      </c>
-      <c r="B414" t="s">
-        <v>1197</v>
       </c>
       <c r="C414" t="s">
         <v>58</v>
@@ -32662,7 +32658,7 @@
         <v>20</v>
       </c>
       <c r="I414" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="K414">
         <v>70</v>
@@ -32695,7 +32691,7 @@
         <v>25</v>
       </c>
       <c r="U414" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="V414">
         <v>9.4550000000000001</v>
@@ -32706,10 +32702,10 @@
     </row>
     <row r="415" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A415" s="5" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B415" t="s">
         <v>1199</v>
-      </c>
-      <c r="B415" t="s">
-        <v>1200</v>
       </c>
       <c r="C415" t="s">
         <v>58</v>
@@ -32754,7 +32750,7 @@
         <v>5</v>
       </c>
       <c r="R415" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="S415">
         <v>445</v>
@@ -32774,10 +32770,10 @@
     </row>
     <row r="416" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A416" s="5" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B416" t="s">
         <v>1202</v>
-      </c>
-      <c r="B416" t="s">
-        <v>1203</v>
       </c>
       <c r="C416" t="s">
         <v>58</v>
@@ -32842,10 +32838,10 @@
     </row>
     <row r="417" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A417" s="5" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B417" t="s">
         <v>1204</v>
-      </c>
-      <c r="B417" t="s">
-        <v>1205</v>
       </c>
       <c r="C417" t="s">
         <v>58</v>
@@ -32910,10 +32906,10 @@
     </row>
     <row r="418" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A418" s="5" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B418" t="s">
         <v>1206</v>
-      </c>
-      <c r="B418" t="s">
-        <v>1207</v>
       </c>
       <c r="C418" t="s">
         <v>58</v>
@@ -32978,10 +32974,10 @@
     </row>
     <row r="419" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A419" s="5" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B419" t="s">
         <v>1208</v>
-      </c>
-      <c r="B419" t="s">
-        <v>1209</v>
       </c>
       <c r="C419" t="s">
         <v>58</v>
@@ -33035,7 +33031,7 @@
         <v>25</v>
       </c>
       <c r="U419" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="V419">
         <v>9.734</v>
@@ -33046,10 +33042,10 @@
     </row>
     <row r="420" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A420" s="5" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B420" t="s">
         <v>1210</v>
-      </c>
-      <c r="B420" t="s">
-        <v>1211</v>
       </c>
       <c r="C420" t="s">
         <v>58</v>
@@ -33094,7 +33090,7 @@
         <v>5</v>
       </c>
       <c r="R420" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="S420">
         <v>421</v>
@@ -33114,10 +33110,10 @@
     </row>
     <row r="421" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A421" s="5" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B421" t="s">
         <v>1213</v>
-      </c>
-      <c r="B421" t="s">
-        <v>1214</v>
       </c>
       <c r="C421" t="s">
         <v>58</v>
@@ -33182,10 +33178,10 @@
     </row>
     <row r="422" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A422" s="5" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B422" t="s">
         <v>1215</v>
-      </c>
-      <c r="B422" t="s">
-        <v>1216</v>
       </c>
       <c r="C422" t="s">
         <v>58</v>
@@ -33230,7 +33226,7 @@
         <v>5</v>
       </c>
       <c r="R422" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="S422">
         <v>421</v>
@@ -33250,10 +33246,10 @@
     </row>
     <row r="423" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A423" s="5" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B423" t="s">
         <v>1218</v>
-      </c>
-      <c r="B423" t="s">
-        <v>1219</v>
       </c>
       <c r="C423" t="s">
         <v>58</v>
@@ -33298,7 +33294,7 @@
         <v>5</v>
       </c>
       <c r="R423" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="S423">
         <v>422</v>
@@ -33318,10 +33314,10 @@
     </row>
     <row r="424" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A424" s="5" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B424" t="s">
         <v>1221</v>
-      </c>
-      <c r="B424" t="s">
-        <v>1222</v>
       </c>
       <c r="C424" t="s">
         <v>58</v>
@@ -33372,7 +33368,7 @@
         <v>25</v>
       </c>
       <c r="U424" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="V424">
         <v>9.1470000000000002</v>
@@ -33383,10 +33379,10 @@
     </row>
     <row r="425" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A425" s="5" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B425" t="s">
         <v>1224</v>
-      </c>
-      <c r="B425" t="s">
-        <v>1225</v>
       </c>
       <c r="C425" t="s">
         <v>58</v>
@@ -33445,10 +33441,10 @@
     </row>
     <row r="426" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A426" s="5" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B426" t="s">
         <v>1226</v>
-      </c>
-      <c r="B426" t="s">
-        <v>1227</v>
       </c>
       <c r="C426" t="s">
         <v>58</v>
@@ -33487,7 +33483,7 @@
         <v>5</v>
       </c>
       <c r="R426" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="S426">
         <v>422</v>
@@ -33507,10 +33503,10 @@
     </row>
     <row r="427" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A427" s="5" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B427" t="s">
         <v>1229</v>
-      </c>
-      <c r="B427" t="s">
-        <v>1230</v>
       </c>
       <c r="C427" t="s">
         <v>58</v>
@@ -33555,7 +33551,7 @@
         <v>5</v>
       </c>
       <c r="R427" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="S427">
         <v>422</v>
@@ -33575,10 +33571,10 @@
     </row>
     <row r="428" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A428" s="5" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B428" t="s">
         <v>1232</v>
-      </c>
-      <c r="B428" t="s">
-        <v>1233</v>
       </c>
       <c r="C428" t="s">
         <v>58</v>
@@ -33617,7 +33613,7 @@
         <v>5</v>
       </c>
       <c r="R428" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="S428">
         <v>422</v>
@@ -33637,10 +33633,10 @@
     </row>
     <row r="429" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A429" s="5" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B429" s="7" t="s">
         <v>1235</v>
-      </c>
-      <c r="B429" s="7" t="s">
-        <v>1236</v>
       </c>
       <c r="C429" t="s">
         <v>58</v>
@@ -33682,10 +33678,10 @@
         <v>6</v>
       </c>
       <c r="Q429" t="s">
+        <v>1236</v>
+      </c>
+      <c r="R429" t="s">
         <v>1237</v>
-      </c>
-      <c r="R429" t="s">
-        <v>1238</v>
       </c>
       <c r="S429">
         <v>429</v>
@@ -33705,10 +33701,10 @@
     </row>
     <row r="430" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A430" s="5" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B430" t="s">
         <v>1239</v>
-      </c>
-      <c r="B430" t="s">
-        <v>1240</v>
       </c>
       <c r="C430" t="s">
         <v>58</v>
@@ -33753,7 +33749,7 @@
         <v>5</v>
       </c>
       <c r="R430" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S430">
         <v>422</v>
@@ -33773,10 +33769,10 @@
     </row>
     <row r="431" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A431" s="5" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C431" t="s">
         <v>58</v>
@@ -33833,10 +33829,10 @@
     </row>
     <row r="432" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A432" s="5" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B432" t="s">
         <v>1244</v>
-      </c>
-      <c r="B432" t="s">
-        <v>1245</v>
       </c>
       <c r="C432" t="s">
         <v>58</v>
@@ -33901,10 +33897,10 @@
     </row>
     <row r="433" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A433" s="5" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B433" t="s">
         <v>1246</v>
-      </c>
-      <c r="B433" t="s">
-        <v>1247</v>
       </c>
       <c r="C433" t="s">
         <v>58</v>
@@ -33969,10 +33965,10 @@
     </row>
     <row r="434" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A434" s="5" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B434" t="s">
         <v>1248</v>
-      </c>
-      <c r="B434" t="s">
-        <v>1249</v>
       </c>
       <c r="C434" t="s">
         <v>58</v>
@@ -34037,10 +34033,10 @@
     </row>
     <row r="435" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A435" s="5" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B435" t="s">
         <v>1250</v>
-      </c>
-      <c r="B435" t="s">
-        <v>1251</v>
       </c>
       <c r="C435" t="s">
         <v>58</v>
@@ -34058,7 +34054,7 @@
         <v>20</v>
       </c>
       <c r="I435" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="K435">
         <v>86</v>
@@ -34082,7 +34078,7 @@
         <v>5</v>
       </c>
       <c r="R435" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="S435">
         <v>443</v>
@@ -34102,10 +34098,10 @@
     </row>
     <row r="436" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A436" s="5" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="B436" s="7" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C436" t="s">
         <v>58</v>
@@ -34150,7 +34146,7 @@
         <v>5</v>
       </c>
       <c r="R436" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="S436">
         <v>443</v>
@@ -34159,7 +34155,7 @@
         <v>25</v>
       </c>
       <c r="U436" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="V436">
         <v>9.9329999999999998</v>
@@ -34170,10 +34166,10 @@
     </row>
     <row r="437" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A437" s="5" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B437" t="s">
         <v>1258</v>
-      </c>
-      <c r="B437" t="s">
-        <v>1259</v>
       </c>
       <c r="C437" t="s">
         <v>58</v>
@@ -34191,7 +34187,7 @@
         <v>5</v>
       </c>
       <c r="I437" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="K437">
         <v>103</v>
@@ -34215,7 +34211,7 @@
         <v>6</v>
       </c>
       <c r="R437" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="S437">
         <v>421</v>
@@ -34235,10 +34231,10 @@
     </row>
     <row r="438" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A438" s="5" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B438" t="s">
         <v>1261</v>
-      </c>
-      <c r="B438" t="s">
-        <v>1262</v>
       </c>
       <c r="C438" t="s">
         <v>58</v>
@@ -34283,7 +34279,7 @@
         <v>5</v>
       </c>
       <c r="R438" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="S438">
         <v>421</v>
@@ -34303,10 +34299,10 @@
     </row>
     <row r="439" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A439" s="5" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B439" t="s">
         <v>1264</v>
-      </c>
-      <c r="B439" t="s">
-        <v>1265</v>
       </c>
       <c r="C439" t="s">
         <v>58</v>
@@ -34371,10 +34367,10 @@
     </row>
     <row r="440" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A440" s="5" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B440" t="s">
         <v>1266</v>
-      </c>
-      <c r="B440" t="s">
-        <v>1267</v>
       </c>
       <c r="C440" t="s">
         <v>58</v>
@@ -34436,10 +34432,10 @@
     </row>
     <row r="441" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A441" s="5" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B441" t="s">
         <v>1268</v>
-      </c>
-      <c r="B441" t="s">
-        <v>1269</v>
       </c>
       <c r="C441" t="s">
         <v>58</v>
@@ -34493,7 +34489,7 @@
         <v>25</v>
       </c>
       <c r="U441" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="V441">
         <v>9.4380000000000006</v>
@@ -34504,10 +34500,10 @@
     </row>
     <row r="442" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A442" s="5" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B442" t="s">
         <v>1271</v>
-      </c>
-      <c r="B442" t="s">
-        <v>1272</v>
       </c>
       <c r="C442" t="s">
         <v>58</v>
@@ -34561,7 +34557,7 @@
         <v>25</v>
       </c>
       <c r="U442" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="V442">
         <v>9.1839999999999993</v>
@@ -34572,10 +34568,10 @@
     </row>
     <row r="443" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A443" s="5" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B443" s="4" t="s">
         <v>1274</v>
-      </c>
-      <c r="B443" s="4" t="s">
-        <v>1275</v>
       </c>
       <c r="C443" t="s">
         <v>58</v>
@@ -34634,10 +34630,10 @@
     </row>
     <row r="444" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A444" s="5" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B444" t="s">
         <v>1276</v>
-      </c>
-      <c r="B444" t="s">
-        <v>1277</v>
       </c>
       <c r="C444" t="s">
         <v>58</v>
@@ -34696,10 +34692,10 @@
     </row>
     <row r="445" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A445" s="5" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B445" t="s">
         <v>1278</v>
-      </c>
-      <c r="B445" t="s">
-        <v>1279</v>
       </c>
       <c r="C445" t="s">
         <v>58</v>
@@ -34764,10 +34760,10 @@
     </row>
     <row r="446" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A446" s="5" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B446" s="4" t="s">
         <v>1280</v>
-      </c>
-      <c r="B446" s="4" t="s">
-        <v>1281</v>
       </c>
       <c r="C446" t="s">
         <v>58</v>
@@ -34826,10 +34822,10 @@
     </row>
     <row r="447" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A447" s="5" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B447" t="s">
         <v>1282</v>
-      </c>
-      <c r="B447" t="s">
-        <v>1283</v>
       </c>
       <c r="C447" t="s">
         <v>58</v>
@@ -34868,7 +34864,7 @@
         <v>5</v>
       </c>
       <c r="R447" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="S447">
         <v>421</v>
@@ -34888,10 +34884,10 @@
     </row>
     <row r="448" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A448" s="5" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B448" t="s">
         <v>1284</v>
-      </c>
-      <c r="B448" t="s">
-        <v>1285</v>
       </c>
       <c r="C448" t="s">
         <v>58</v>
@@ -34930,7 +34926,7 @@
         <v>5</v>
       </c>
       <c r="R448" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="S448">
         <v>421</v>
@@ -34950,10 +34946,10 @@
     </row>
     <row r="449" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A449" s="5" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B449" t="s">
         <v>1287</v>
-      </c>
-      <c r="B449" t="s">
-        <v>1288</v>
       </c>
       <c r="C449" t="s">
         <v>58</v>
@@ -35007,7 +35003,7 @@
         <v>25</v>
       </c>
       <c r="U449" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="V449">
         <v>9.3179999999999996</v>
@@ -35018,10 +35014,10 @@
     </row>
     <row r="450" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A450" s="5" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B450" t="s">
         <v>1289</v>
-      </c>
-      <c r="B450" t="s">
-        <v>1290</v>
       </c>
       <c r="C450" t="s">
         <v>58</v>
@@ -35066,7 +35062,7 @@
         <v>5</v>
       </c>
       <c r="R450" s="1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="S450">
         <v>421</v>
@@ -35086,10 +35082,10 @@
     </row>
     <row r="451" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A451" s="5" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B451" t="s">
         <v>1292</v>
-      </c>
-      <c r="B451" t="s">
-        <v>1293</v>
       </c>
       <c r="C451" t="s">
         <v>58</v>
@@ -35151,10 +35147,10 @@
     </row>
     <row r="452" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A452" s="5" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B452" t="s">
         <v>1294</v>
-      </c>
-      <c r="B452" t="s">
-        <v>1295</v>
       </c>
       <c r="C452" t="s">
         <v>58</v>
@@ -35208,7 +35204,7 @@
         <v>25</v>
       </c>
       <c r="U452" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="V452">
         <v>9.4019999999999992</v>
@@ -35219,10 +35215,10 @@
     </row>
     <row r="453" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A453" s="5" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B453" t="s">
         <v>1297</v>
-      </c>
-      <c r="B453" t="s">
-        <v>1298</v>
       </c>
       <c r="C453" t="s">
         <v>58</v>
@@ -35261,7 +35257,7 @@
         <v>5</v>
       </c>
       <c r="R453" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="S453">
         <v>421</v>
@@ -35281,10 +35277,10 @@
     </row>
     <row r="454" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A454" s="5" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="B454" s="11" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="C454" t="s">
         <v>58</v>
@@ -35326,10 +35322,10 @@
         <v>6</v>
       </c>
       <c r="Q454" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="R454" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="S454">
         <v>421</v>
@@ -35349,10 +35345,10 @@
     </row>
     <row r="455" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A455" s="5" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B455" t="s">
         <v>1303</v>
-      </c>
-      <c r="B455" t="s">
-        <v>1304</v>
       </c>
       <c r="C455" t="s">
         <v>58</v>
@@ -35403,7 +35399,7 @@
         <v>422</v>
       </c>
       <c r="T455" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="U455" t="s">
         <v>317</v>
@@ -35417,10 +35413,10 @@
     </row>
     <row r="456" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A456" s="5" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B456" s="12" t="s">
         <v>1306</v>
-      </c>
-      <c r="B456" s="12" t="s">
-        <v>1307</v>
       </c>
       <c r="C456" s="12" t="s">
         <v>58</v>
@@ -35466,7 +35462,7 @@
         <v>5</v>
       </c>
       <c r="R456" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="S456">
         <v>422</v>
@@ -35486,10 +35482,10 @@
     </row>
     <row r="457" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A457" s="5" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B457" t="s">
         <v>1309</v>
-      </c>
-      <c r="B457" t="s">
-        <v>1310</v>
       </c>
       <c r="C457" t="s">
         <v>58</v>
@@ -35534,7 +35530,7 @@
         <v>5</v>
       </c>
       <c r="R457" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="S457">
         <v>422</v>
@@ -35554,10 +35550,10 @@
     </row>
     <row r="458" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A458" s="5" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B458" t="s">
         <v>1312</v>
-      </c>
-      <c r="B458" t="s">
-        <v>1313</v>
       </c>
       <c r="C458" t="s">
         <v>58</v>
@@ -35616,10 +35612,10 @@
     </row>
     <row r="459" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A459" s="5" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B459" t="s">
         <v>1314</v>
-      </c>
-      <c r="B459" t="s">
-        <v>1315</v>
       </c>
       <c r="C459" t="s">
         <v>58</v>
@@ -35637,7 +35633,7 @@
         <v>15</v>
       </c>
       <c r="I459" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="J459">
         <v>5</v>
@@ -35684,10 +35680,10 @@
     </row>
     <row r="460" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A460" s="5" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B460" t="s">
         <v>1317</v>
-      </c>
-      <c r="B460" t="s">
-        <v>1318</v>
       </c>
       <c r="C460" t="s">
         <v>58</v>
@@ -35705,7 +35701,7 @@
         <v>9</v>
       </c>
       <c r="I460" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="K460">
         <v>65</v>
@@ -35729,7 +35725,7 @@
         <v>5</v>
       </c>
       <c r="R460" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="S460">
         <v>421</v>
@@ -35749,10 +35745,10 @@
     </row>
     <row r="461" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A461" s="5" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B461" t="s">
         <v>1320</v>
-      </c>
-      <c r="B461" t="s">
-        <v>1321</v>
       </c>
       <c r="C461" t="s">
         <v>58</v>
@@ -35770,7 +35766,7 @@
         <v>29</v>
       </c>
       <c r="I461" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="K461">
         <v>91</v>
@@ -35814,10 +35810,10 @@
     </row>
     <row r="462" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A462" s="5" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B462" t="s">
         <v>1322</v>
-      </c>
-      <c r="B462" t="s">
-        <v>1323</v>
       </c>
       <c r="C462" t="s">
         <v>58</v>
@@ -35876,10 +35872,10 @@
     </row>
     <row r="463" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A463" s="5" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B463" s="4" t="s">
         <v>1324</v>
-      </c>
-      <c r="B463" s="4" t="s">
-        <v>1325</v>
       </c>
       <c r="C463" t="s">
         <v>58</v>
@@ -35918,7 +35914,7 @@
         <v>5</v>
       </c>
       <c r="R463" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="S463">
         <v>421</v>
@@ -35927,7 +35923,7 @@
         <v>25</v>
       </c>
       <c r="U463" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="V463">
         <v>9.34</v>
@@ -35938,10 +35934,10 @@
     </row>
     <row r="464" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A464" s="5" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B464" t="s">
         <v>1328</v>
-      </c>
-      <c r="B464" t="s">
-        <v>1329</v>
       </c>
       <c r="C464" t="s">
         <v>58</v>
@@ -35980,7 +35976,7 @@
         <v>5</v>
       </c>
       <c r="R464" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="S464">
         <v>444</v>
@@ -35989,7 +35985,7 @@
         <v>25</v>
       </c>
       <c r="U464" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="V464">
         <v>8.8670000000000009</v>
@@ -36000,10 +35996,10 @@
     </row>
     <row r="465" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A465" s="5" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B465" t="s">
         <v>1332</v>
-      </c>
-      <c r="B465" t="s">
-        <v>1333</v>
       </c>
       <c r="C465" t="s">
         <v>58</v>
@@ -36021,7 +36017,7 @@
         <v>7.6</v>
       </c>
       <c r="I465" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="K465">
         <v>73</v>
@@ -36045,7 +36041,7 @@
         <v>5</v>
       </c>
       <c r="R465" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="S465">
         <v>444</v>
@@ -36065,10 +36061,10 @@
     </row>
     <row r="466" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A466" s="5" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B466" t="s">
         <v>1335</v>
-      </c>
-      <c r="B466" t="s">
-        <v>1336</v>
       </c>
       <c r="C466" t="s">
         <v>58</v>
@@ -36113,7 +36109,7 @@
         <v>5</v>
       </c>
       <c r="R466" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="S466">
         <v>442</v>
@@ -36133,10 +36129,10 @@
     </row>
     <row r="467" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A467" s="5" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B467" t="s">
         <v>1338</v>
-      </c>
-      <c r="B467" t="s">
-        <v>1339</v>
       </c>
       <c r="C467" t="s">
         <v>58</v>
@@ -36195,10 +36191,10 @@
     </row>
     <row r="468" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A468" s="5" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B468" t="s">
         <v>1340</v>
-      </c>
-      <c r="B468" t="s">
-        <v>1341</v>
       </c>
       <c r="C468" t="s">
         <v>58</v>
@@ -36216,7 +36212,7 @@
         <v>9</v>
       </c>
       <c r="I468" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="K468">
         <v>81</v>
@@ -36249,7 +36245,7 @@
         <v>25</v>
       </c>
       <c r="U468" s="1" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="V468">
         <v>9.2059999999999995</v>
@@ -36260,10 +36256,10 @@
     </row>
     <row r="469" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A469" s="5" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B469" t="s">
         <v>1343</v>
-      </c>
-      <c r="B469" t="s">
-        <v>1344</v>
       </c>
       <c r="C469" t="s">
         <v>58</v>
@@ -36322,10 +36318,10 @@
     </row>
     <row r="470" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A470" s="5" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B470" t="s">
         <v>1345</v>
-      </c>
-      <c r="B470" t="s">
-        <v>1346</v>
       </c>
       <c r="C470" t="s">
         <v>58</v>
@@ -36370,7 +36366,7 @@
         <v>5</v>
       </c>
       <c r="R470" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="S470">
         <v>421</v>
@@ -36390,10 +36386,10 @@
     </row>
     <row r="471" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A471" s="5" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="B471" s="13" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="C471" s="13" t="s">
         <v>58</v>
@@ -36446,7 +36442,7 @@
         <v>25</v>
       </c>
       <c r="U471" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="V471">
         <v>10.146000000000001</v>
@@ -36457,10 +36453,10 @@
     </row>
     <row r="472" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A472" s="5" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B472" t="s">
         <v>1350</v>
-      </c>
-      <c r="B472" t="s">
-        <v>1351</v>
       </c>
       <c r="C472" t="s">
         <v>58</v>
@@ -36525,10 +36521,10 @@
     </row>
     <row r="473" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A473" s="5" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B473" s="12" t="s">
         <v>1352</v>
-      </c>
-      <c r="B473" s="12" t="s">
-        <v>1353</v>
       </c>
       <c r="C473" s="12" t="s">
         <v>58</v>
@@ -36594,10 +36590,10 @@
     </row>
     <row r="474" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A474" s="5" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B474" t="s">
         <v>1354</v>
-      </c>
-      <c r="B474" t="s">
-        <v>1355</v>
       </c>
       <c r="C474" t="s">
         <v>58</v>
@@ -36615,7 +36611,7 @@
         <v>9</v>
       </c>
       <c r="I474" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="K474">
         <v>77</v>
@@ -36648,7 +36644,7 @@
         <v>25</v>
       </c>
       <c r="U474" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="V474">
         <v>9.8559999999999999</v>
@@ -36659,10 +36655,10 @@
     </row>
     <row r="475" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A475" s="5" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B475" s="8" t="s">
         <v>1357</v>
-      </c>
-      <c r="B475" s="8" t="s">
-        <v>1358</v>
       </c>
       <c r="C475" t="s">
         <v>58</v>
@@ -36724,10 +36720,10 @@
     </row>
     <row r="476" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A476" s="5" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B476" t="s">
         <v>1359</v>
-      </c>
-      <c r="B476" t="s">
-        <v>1360</v>
       </c>
       <c r="C476" t="s">
         <v>58</v>
@@ -36786,10 +36782,10 @@
     </row>
     <row r="477" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A477" s="5" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B477" s="12" t="s">
         <v>1361</v>
-      </c>
-      <c r="B477" s="12" t="s">
-        <v>1362</v>
       </c>
       <c r="C477" s="12" t="s">
         <v>58</v>
@@ -36855,10 +36851,10 @@
     </row>
     <row r="478" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A478" s="5" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B478" t="s">
         <v>1363</v>
-      </c>
-      <c r="B478" t="s">
-        <v>1364</v>
       </c>
       <c r="C478" t="s">
         <v>58</v>
@@ -36912,7 +36908,7 @@
         <v>25</v>
       </c>
       <c r="U478" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="V478">
         <v>8.8740000000000006</v>
@@ -36923,10 +36919,10 @@
     </row>
     <row r="479" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A479" s="5" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B479" t="s">
         <v>1366</v>
-      </c>
-      <c r="B479" t="s">
-        <v>1367</v>
       </c>
       <c r="C479" t="s">
         <v>58</v>
@@ -36971,7 +36967,7 @@
         <v>5</v>
       </c>
       <c r="R479" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="S479">
         <v>445</v>
@@ -36991,10 +36987,10 @@
     </row>
     <row r="480" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A480" s="5" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B480" t="s">
         <v>1369</v>
-      </c>
-      <c r="B480" t="s">
-        <v>1370</v>
       </c>
       <c r="C480" t="s">
         <v>58</v>
@@ -37059,10 +37055,10 @@
     </row>
     <row r="481" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A481" s="5" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B481" t="s">
         <v>1371</v>
-      </c>
-      <c r="B481" t="s">
-        <v>1372</v>
       </c>
       <c r="C481" t="s">
         <v>58</v>
@@ -37116,7 +37112,7 @@
         <v>25</v>
       </c>
       <c r="U481" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="V481">
         <v>9.6419999999999995</v>
@@ -37127,10 +37123,10 @@
     </row>
     <row r="482" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A482" s="5" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B482" s="12" t="s">
         <v>1374</v>
-      </c>
-      <c r="B482" s="12" t="s">
-        <v>1375</v>
       </c>
       <c r="C482" s="12" t="s">
         <v>58</v>
@@ -37196,10 +37192,10 @@
     </row>
     <row r="483" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A483" s="5" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B483" t="s">
         <v>1376</v>
-      </c>
-      <c r="B483" t="s">
-        <v>1377</v>
       </c>
       <c r="C483" t="s">
         <v>58</v>
@@ -37217,7 +37213,7 @@
         <v>54</v>
       </c>
       <c r="I483" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="K483">
         <v>145</v>
@@ -37261,10 +37257,10 @@
     </row>
     <row r="484" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A484" s="5" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B484" s="12" t="s">
         <v>1378</v>
-      </c>
-      <c r="B484" s="12" t="s">
-        <v>1379</v>
       </c>
       <c r="C484" s="12" t="s">
         <v>58</v>
@@ -37330,10 +37326,10 @@
     </row>
     <row r="485" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A485" s="5" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B485" t="s">
         <v>1380</v>
-      </c>
-      <c r="B485" t="s">
-        <v>1381</v>
       </c>
       <c r="C485" t="s">
         <v>58</v>
@@ -37351,7 +37347,7 @@
         <v>35.299999999999997</v>
       </c>
       <c r="I485" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="K485">
         <v>88</v>
@@ -37395,10 +37391,10 @@
     </row>
     <row r="486" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A486" s="5" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B486" s="5" t="s">
         <v>1382</v>
-      </c>
-      <c r="B486" s="5" t="s">
-        <v>1383</v>
       </c>
       <c r="C486" t="s">
         <v>58</v>
@@ -37416,7 +37412,7 @@
         <v>40</v>
       </c>
       <c r="I486" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="K486">
         <v>92</v>
@@ -37460,10 +37456,10 @@
     </row>
     <row r="487" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A487" s="5" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B487" s="5" t="s">
         <v>1384</v>
-      </c>
-      <c r="B487" s="5" t="s">
-        <v>1385</v>
       </c>
       <c r="C487" t="s">
         <v>58</v>
@@ -37517,7 +37513,7 @@
         <v>25</v>
       </c>
       <c r="U487" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="V487">
         <v>9.4860000000000007</v>
@@ -37528,10 +37524,10 @@
     </row>
     <row r="488" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A488" s="5" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B488" s="5" t="s">
         <v>1387</v>
-      </c>
-      <c r="B488" s="5" t="s">
-        <v>1388</v>
       </c>
       <c r="C488" t="s">
         <v>58</v>
@@ -37570,7 +37566,7 @@
         <v>5</v>
       </c>
       <c r="R488" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="S488">
         <v>421</v>
@@ -37590,10 +37586,10 @@
     </row>
     <row r="489" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A489" s="5" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B489" s="12" t="s">
         <v>1390</v>
-      </c>
-      <c r="B489" s="12" t="s">
-        <v>1391</v>
       </c>
       <c r="C489" s="12" t="s">
         <v>58</v>
@@ -37639,7 +37635,7 @@
         <v>5</v>
       </c>
       <c r="R489" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="S489">
         <v>444</v>
@@ -37659,10 +37655,10 @@
     </row>
     <row r="490" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A490" s="5" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B490" s="5" t="s">
         <v>1393</v>
-      </c>
-      <c r="B490" s="5" t="s">
-        <v>1394</v>
       </c>
       <c r="C490" t="s">
         <v>58</v>
@@ -37680,7 +37676,7 @@
         <v>55</v>
       </c>
       <c r="I490" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="K490">
         <v>72</v>
@@ -37724,10 +37720,10 @@
     </row>
     <row r="491" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A491" s="5" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B491" s="12" t="s">
         <v>1395</v>
-      </c>
-      <c r="B491" s="12" t="s">
-        <v>1396</v>
       </c>
       <c r="C491" s="12" t="s">
         <v>58</v>
@@ -37773,7 +37769,7 @@
         <v>5</v>
       </c>
       <c r="R491" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="S491">
         <v>422</v>
@@ -37782,7 +37778,7 @@
         <v>25</v>
       </c>
       <c r="U491" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="V491">
         <v>9.3689999999999998</v>
@@ -37793,10 +37789,10 @@
     </row>
     <row r="492" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A492" s="5" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B492" s="4" t="s">
         <v>1398</v>
-      </c>
-      <c r="B492" s="4" t="s">
-        <v>1399</v>
       </c>
       <c r="C492" t="s">
         <v>58</v>
@@ -37855,10 +37851,10 @@
     </row>
     <row r="493" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A493" s="5" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B493" s="5" t="s">
         <v>1400</v>
-      </c>
-      <c r="B493" s="5" t="s">
-        <v>1401</v>
       </c>
       <c r="C493" t="s">
         <v>58</v>
@@ -37876,7 +37872,7 @@
         <v>7</v>
       </c>
       <c r="I493" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="K493">
         <v>96</v>
@@ -37920,10 +37916,10 @@
     </row>
     <row r="494" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A494" s="5" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B494" s="18" t="s">
         <v>1403</v>
-      </c>
-      <c r="B494" s="18" t="s">
-        <v>1404</v>
       </c>
       <c r="C494" s="18" t="s">
         <v>58</v>
@@ -37940,7 +37936,7 @@
       <c r="G494" s="18"/>
       <c r="H494" s="18"/>
       <c r="I494" s="18" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="J494" s="18"/>
       <c r="K494">
@@ -37985,10 +37981,10 @@
     </row>
     <row r="495" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A495" s="5" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B495" s="18" t="s">
         <v>1405</v>
-      </c>
-      <c r="B495" s="18" t="s">
-        <v>1406</v>
       </c>
       <c r="C495" s="18" t="s">
         <v>58</v>
@@ -38005,7 +38001,7 @@
       <c r="G495" s="18"/>
       <c r="H495" s="18"/>
       <c r="I495" s="18" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="J495" s="18"/>
       <c r="K495">
@@ -38050,10 +38046,10 @@
     </row>
     <row r="496" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A496" s="5" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B496" s="5" t="s">
         <v>1407</v>
-      </c>
-      <c r="B496" s="5" t="s">
-        <v>1408</v>
       </c>
       <c r="C496" t="s">
         <v>58</v>
@@ -38095,7 +38091,7 @@
         <v>5</v>
       </c>
       <c r="R496" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="S496">
         <v>442</v>
@@ -38115,10 +38111,10 @@
     </row>
     <row r="497" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A497" s="12" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B497" s="12" t="s">
         <v>1410</v>
-      </c>
-      <c r="B497" s="12" t="s">
-        <v>1411</v>
       </c>
       <c r="C497" s="12" t="s">
         <v>58</v>
@@ -38164,7 +38160,7 @@
         <v>5</v>
       </c>
       <c r="R497" s="1" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="S497">
         <v>444</v>
@@ -38184,10 +38180,10 @@
     </row>
     <row r="498" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A498" s="5" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B498" s="5" t="s">
         <v>1413</v>
-      </c>
-      <c r="B498" s="5" t="s">
-        <v>1414</v>
       </c>
       <c r="C498" t="s">
         <v>58</v>
@@ -38223,10 +38219,10 @@
         <v>6</v>
       </c>
       <c r="Q498" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="R498" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="S498">
         <v>422</v>
@@ -38246,10 +38242,10 @@
     </row>
     <row r="499" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A499" s="5" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B499" s="5" t="s">
         <v>1416</v>
-      </c>
-      <c r="B499" s="5" t="s">
-        <v>1417</v>
       </c>
       <c r="C499" t="s">
         <v>58</v>
@@ -38294,7 +38290,7 @@
         <v>5</v>
       </c>
       <c r="R499" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="S499">
         <v>442</v>
@@ -38303,7 +38299,7 @@
         <v>25</v>
       </c>
       <c r="U499" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="V499">
         <v>9.0009999999999994</v>
@@ -38314,10 +38310,10 @@
     </row>
     <row r="500" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A500" s="5" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B500" s="5" t="s">
         <v>1419</v>
-      </c>
-      <c r="B500" s="5" t="s">
-        <v>1420</v>
       </c>
       <c r="C500" t="s">
         <v>58</v>
@@ -38335,7 +38331,7 @@
         <v>9.5</v>
       </c>
       <c r="I500" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="K500">
         <v>105</v>
@@ -38379,10 +38375,10 @@
     </row>
     <row r="501" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A501" s="5" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B501" s="12" t="s">
         <v>1421</v>
-      </c>
-      <c r="B501" s="12" t="s">
-        <v>1422</v>
       </c>
       <c r="C501" s="12" t="s">
         <v>58</v>
@@ -38424,7 +38420,7 @@
         <v>5</v>
       </c>
       <c r="R501" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="S501">
         <v>442</v>
@@ -38444,10 +38440,10 @@
     </row>
     <row r="502" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A502" s="5" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B502" s="5" t="s">
         <v>1424</v>
-      </c>
-      <c r="B502" s="5" t="s">
-        <v>1425</v>
       </c>
       <c r="C502" t="s">
         <v>58</v>
@@ -38492,7 +38488,7 @@
         <v>5</v>
       </c>
       <c r="R502" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="S502">
         <v>442</v>
@@ -38512,10 +38508,10 @@
     </row>
     <row r="503" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A503" s="5" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B503" s="12" t="s">
         <v>1427</v>
-      </c>
-      <c r="B503" s="12" t="s">
-        <v>1428</v>
       </c>
       <c r="C503" s="12" t="s">
         <v>58</v>
@@ -38581,10 +38577,10 @@
     </row>
     <row r="504" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A504" s="5" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B504" s="12" t="s">
         <v>1429</v>
-      </c>
-      <c r="B504" s="12" t="s">
-        <v>1430</v>
       </c>
       <c r="C504" s="12" t="s">
         <v>58</v>
@@ -38650,10 +38646,10 @@
     </row>
     <row r="505" spans="1:25" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A505" s="8" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B505" s="14" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="C505" t="s">
         <v>58</v>
@@ -38722,10 +38718,10 @@
     </row>
     <row r="506" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A506" s="18" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B506" s="18" t="s">
         <v>1436</v>
-      </c>
-      <c r="B506" s="18" t="s">
-        <v>1437</v>
       </c>
       <c r="C506" s="18" t="s">
         <v>58</v>
@@ -38742,7 +38738,7 @@
       <c r="G506" s="18"/>
       <c r="H506" s="18"/>
       <c r="I506" s="18" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="J506" s="18"/>
       <c r="K506">
@@ -38787,10 +38783,10 @@
     </row>
     <row r="507" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A507" s="5" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B507" s="14" t="s">
         <v>1438</v>
-      </c>
-      <c r="B507" s="14" t="s">
-        <v>1439</v>
       </c>
       <c r="C507" s="5" t="s">
         <v>58</v>
@@ -38835,7 +38831,7 @@
         <v>5</v>
       </c>
       <c r="R507" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="S507">
         <v>442</v>
@@ -38844,7 +38840,7 @@
         <v>25</v>
       </c>
       <c r="U507" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="V507">
         <v>10.244</v>
@@ -38861,10 +38857,10 @@
     </row>
     <row r="508" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A508" s="5" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="B508" s="15" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="C508" s="5" t="s">
         <v>58</v>
@@ -38906,7 +38902,7 @@
         <v>6</v>
       </c>
       <c r="Q508" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="R508" t="s">
         <v>6</v>
@@ -38935,10 +38931,10 @@
     </row>
     <row r="509" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A509" s="5" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B509" s="15" t="s">
         <v>1442</v>
-      </c>
-      <c r="B509" s="15" t="s">
-        <v>1443</v>
       </c>
       <c r="C509" s="5" t="s">
         <v>58</v>
@@ -38980,10 +38976,10 @@
         <v>80</v>
       </c>
       <c r="Q509" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="R509" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="S509">
         <v>421</v>
@@ -39009,10 +39005,10 @@
     </row>
     <row r="510" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A510" s="5" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B510" t="s">
         <v>1444</v>
-      </c>
-      <c r="B510" t="s">
-        <v>1445</v>
       </c>
       <c r="C510" s="5" t="s">
         <v>58</v>
@@ -39077,10 +39073,10 @@
     </row>
     <row r="511" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A511" s="5" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B511" t="s">
         <v>1446</v>
-      </c>
-      <c r="B511" t="s">
-        <v>1447</v>
       </c>
       <c r="C511" s="5" t="s">
         <v>58</v>
@@ -39098,7 +39094,7 @@
         <v>1.8</v>
       </c>
       <c r="I511" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="K511">
         <v>65</v>
@@ -39122,7 +39118,7 @@
         <v>5</v>
       </c>
       <c r="R511" s="1" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="S511">
         <v>422</v>
@@ -39148,10 +39144,10 @@
     </row>
     <row r="512" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A512" s="5" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B512" t="s">
         <v>1449</v>
-      </c>
-      <c r="B512" t="s">
-        <v>1450</v>
       </c>
       <c r="C512" s="5" t="s">
         <v>58</v>
@@ -39196,7 +39192,7 @@
         <v>5</v>
       </c>
       <c r="R512" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="S512">
         <v>422</v>
@@ -39222,10 +39218,10 @@
     </row>
     <row r="513" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A513" s="18" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B513" s="18" t="s">
         <v>1452</v>
-      </c>
-      <c r="B513" s="18" t="s">
-        <v>1453</v>
       </c>
       <c r="C513" s="18" t="s">
         <v>58</v>
@@ -39242,7 +39238,7 @@
       <c r="G513" s="18"/>
       <c r="H513" s="18"/>
       <c r="I513" s="18" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="J513" s="18"/>
       <c r="K513">
@@ -39293,10 +39289,10 @@
     </row>
     <row r="514" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A514" s="5" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B514" t="s">
         <v>1454</v>
-      </c>
-      <c r="B514" t="s">
-        <v>1455</v>
       </c>
       <c r="C514" s="5" t="s">
         <v>58</v>
@@ -39341,7 +39337,7 @@
         <v>5</v>
       </c>
       <c r="R514" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="S514">
         <v>445</v>
@@ -39350,7 +39346,7 @@
         <v>25</v>
       </c>
       <c r="U514" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="V514">
         <v>9.3420000000000005</v>
@@ -39367,10 +39363,10 @@
     </row>
     <row r="515" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A515" s="5" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B515" t="s">
         <v>1458</v>
-      </c>
-      <c r="B515" t="s">
-        <v>1459</v>
       </c>
       <c r="C515" s="5" t="s">
         <v>58</v>
@@ -39441,10 +39437,10 @@
     </row>
     <row r="516" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A516" s="5" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B516" t="s">
         <v>1460</v>
-      </c>
-      <c r="B516" t="s">
-        <v>1461</v>
       </c>
       <c r="C516" s="5" t="s">
         <v>58</v>
@@ -39483,7 +39479,7 @@
         <v>5</v>
       </c>
       <c r="R516" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="S516">
         <v>445</v>
@@ -39509,10 +39505,10 @@
     </row>
     <row r="517" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A517" s="5" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B517" t="s">
         <v>1462</v>
-      </c>
-      <c r="B517" t="s">
-        <v>1463</v>
       </c>
       <c r="C517" s="5" t="s">
         <v>58</v>
@@ -39554,7 +39550,7 @@
         <v>5</v>
       </c>
       <c r="R517" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="S517">
         <v>444</v>
@@ -39580,10 +39576,10 @@
     </row>
     <row r="518" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A518" s="5" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B518" t="s">
         <v>1465</v>
-      </c>
-      <c r="B518" t="s">
-        <v>1466</v>
       </c>
       <c r="C518" s="5" t="s">
         <v>58</v>
@@ -39628,7 +39624,7 @@
         <v>5</v>
       </c>
       <c r="R518" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="S518">
         <v>444</v>
@@ -39654,10 +39650,10 @@
     </row>
     <row r="519" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A519" s="5" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B519" s="16" t="s">
         <v>1468</v>
-      </c>
-      <c r="B519" s="16" t="s">
-        <v>1469</v>
       </c>
       <c r="C519" s="5" t="s">
         <v>58</v>
@@ -39728,10 +39724,10 @@
     </row>
     <row r="520" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A520" s="5" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B520" t="s">
         <v>1470</v>
-      </c>
-      <c r="B520" t="s">
-        <v>1471</v>
       </c>
       <c r="C520" s="5" t="s">
         <v>58</v>
@@ -39802,10 +39798,10 @@
     </row>
     <row r="521" spans="1:25" ht="58" x14ac:dyDescent="0.35">
       <c r="A521" s="5" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B521" s="16" t="s">
         <v>1472</v>
-      </c>
-      <c r="B521" s="16" t="s">
-        <v>1473</v>
       </c>
       <c r="C521" s="5" t="s">
         <v>58</v>
@@ -39847,7 +39843,7 @@
         <v>6</v>
       </c>
       <c r="Q521" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="R521" t="s">
         <v>69</v>
@@ -39859,7 +39855,7 @@
         <v>25</v>
       </c>
       <c r="U521" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="V521">
         <v>9.1349999999999998</v>
@@ -39876,10 +39872,10 @@
     </row>
     <row r="522" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A522" s="5" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B522" t="s">
         <v>1475</v>
-      </c>
-      <c r="B522" t="s">
-        <v>1476</v>
       </c>
       <c r="C522" s="5" t="s">
         <v>58</v>
@@ -39924,7 +39920,7 @@
         <v>5</v>
       </c>
       <c r="R522" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="S522">
         <v>442</v>
@@ -39933,7 +39929,7 @@
         <v>25</v>
       </c>
       <c r="U522" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="V522">
         <v>9.6180000000000003</v>
@@ -39950,10 +39946,10 @@
     </row>
     <row r="523" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A523" s="5" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B523" s="5" t="s">
         <v>1479</v>
-      </c>
-      <c r="B523" s="5" t="s">
-        <v>1480</v>
       </c>
       <c r="C523" s="5" t="s">
         <v>58</v>
@@ -39992,7 +39988,7 @@
         <v>5</v>
       </c>
       <c r="R523" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="S523">
         <v>443</v>
@@ -40018,10 +40014,10 @@
     </row>
     <row r="524" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A524" s="5" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B524" s="5" t="s">
         <v>1482</v>
-      </c>
-      <c r="B524" s="5" t="s">
-        <v>1483</v>
       </c>
       <c r="C524" s="5" t="s">
         <v>58</v>
@@ -40066,7 +40062,7 @@
         <v>5</v>
       </c>
       <c r="R524" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="S524">
         <v>444</v>
@@ -40092,10 +40088,10 @@
     </row>
     <row r="525" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A525" s="5" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B525" s="5" t="s">
         <v>1485</v>
-      </c>
-      <c r="B525" s="5" t="s">
-        <v>1486</v>
       </c>
       <c r="C525" s="5" t="s">
         <v>58</v>
@@ -40134,7 +40130,7 @@
         <v>5</v>
       </c>
       <c r="R525" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="S525">
         <v>424</v>
@@ -40143,7 +40139,7 @@
         <v>25</v>
       </c>
       <c r="U525" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="V525">
         <v>10.050000000000001</v>
@@ -40160,10 +40156,10 @@
     </row>
     <row r="526" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A526" s="5" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B526" s="5" t="s">
         <v>1488</v>
-      </c>
-      <c r="B526" s="5" t="s">
-        <v>1489</v>
       </c>
       <c r="C526" s="5" t="s">
         <v>58</v>
@@ -40234,10 +40230,10 @@
     </row>
     <row r="527" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A527" s="5" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B527" s="18" t="s">
         <v>1490</v>
-      </c>
-      <c r="B527" s="18" t="s">
-        <v>1491</v>
       </c>
       <c r="C527" s="18" t="s">
         <v>58</v>
@@ -40254,7 +40250,7 @@
       <c r="G527" s="18"/>
       <c r="H527" s="18"/>
       <c r="I527" s="18" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="J527" s="18"/>
       <c r="K527">
@@ -40279,7 +40275,7 @@
         <v>5</v>
       </c>
       <c r="R527" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="S527">
         <v>445</v>
@@ -40305,10 +40301,10 @@
     </row>
     <row r="528" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A528" s="5" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B528" s="5" t="s">
         <v>1493</v>
-      </c>
-      <c r="B528" s="5" t="s">
-        <v>1494</v>
       </c>
       <c r="C528" s="5" t="s">
         <v>58</v>
@@ -40379,10 +40375,10 @@
     </row>
     <row r="529" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A529" s="5" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B529" s="5" t="s">
         <v>1495</v>
-      </c>
-      <c r="B529" s="5" t="s">
-        <v>1496</v>
       </c>
       <c r="C529" s="5" t="s">
         <v>58</v>
@@ -40447,10 +40443,10 @@
     </row>
     <row r="530" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A530" s="5" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B530" s="5" t="s">
         <v>1497</v>
-      </c>
-      <c r="B530" s="5" t="s">
-        <v>1498</v>
       </c>
       <c r="C530" s="5" t="s">
         <v>58</v>
@@ -40495,7 +40491,7 @@
         <v>5</v>
       </c>
       <c r="R530" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="S530">
         <v>422</v>
@@ -40521,10 +40517,10 @@
     </row>
     <row r="531" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A531" s="5" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B531" s="5" t="s">
         <v>1500</v>
-      </c>
-      <c r="B531" s="5" t="s">
-        <v>1501</v>
       </c>
       <c r="C531" s="5" t="s">
         <v>58</v>
@@ -40542,7 +40538,7 @@
         <v>25</v>
       </c>
       <c r="I531" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="K531">
         <v>86</v>
@@ -40592,10 +40588,10 @@
     </row>
     <row r="532" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A532" s="5" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B532" s="5" t="s">
         <v>1503</v>
-      </c>
-      <c r="B532" s="5" t="s">
-        <v>1504</v>
       </c>
       <c r="C532" s="5" t="s">
         <v>58</v>
@@ -40640,7 +40636,7 @@
         <v>5</v>
       </c>
       <c r="R532" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="S532">
         <v>445</v>
@@ -40666,10 +40662,10 @@
     </row>
     <row r="533" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A533" s="5" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B533" s="5" t="s">
         <v>1506</v>
-      </c>
-      <c r="B533" s="5" t="s">
-        <v>1507</v>
       </c>
       <c r="C533" s="5" t="s">
         <v>58</v>
@@ -40714,7 +40710,7 @@
         <v>5</v>
       </c>
       <c r="R533" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="S533">
         <v>442</v>
@@ -40740,10 +40736,10 @@
     </row>
     <row r="534" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A534" s="5" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B534" s="5" t="s">
         <v>1509</v>
-      </c>
-      <c r="B534" s="5" t="s">
-        <v>1510</v>
       </c>
       <c r="C534" s="5" t="s">
         <v>58</v>
@@ -40782,7 +40778,7 @@
         <v>5</v>
       </c>
       <c r="R534" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="S534">
         <v>442</v>
@@ -40808,10 +40804,10 @@
     </row>
     <row r="535" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A535" s="5" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B535" s="5" t="s">
         <v>1512</v>
-      </c>
-      <c r="B535" s="5" t="s">
-        <v>1513</v>
       </c>
       <c r="C535" s="5" t="s">
         <v>58</v>
@@ -40856,7 +40852,7 @@
         <v>5</v>
       </c>
       <c r="R535" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="S535">
         <v>442</v>
@@ -40865,7 +40861,7 @@
         <v>25</v>
       </c>
       <c r="U535" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="V535">
         <v>8.4320000000000004</v>
@@ -40882,10 +40878,10 @@
     </row>
     <row r="536" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A536" s="5" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B536" s="5" t="s">
         <v>1515</v>
-      </c>
-      <c r="B536" s="5" t="s">
-        <v>1516</v>
       </c>
       <c r="C536" s="5" t="s">
         <v>58</v>
@@ -40956,10 +40952,10 @@
     </row>
     <row r="537" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A537" s="5" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B537" s="5" t="s">
         <v>1517</v>
-      </c>
-      <c r="B537" s="5" t="s">
-        <v>1518</v>
       </c>
       <c r="C537" s="5" t="s">
         <v>58</v>
@@ -41007,7 +41003,7 @@
         <v>25</v>
       </c>
       <c r="U537" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="V537">
         <v>9.9239999999999995</v>
@@ -41024,10 +41020,10 @@
     </row>
     <row r="538" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A538" s="5" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B538" s="5" t="s">
         <v>1519</v>
-      </c>
-      <c r="B538" s="5" t="s">
-        <v>1520</v>
       </c>
       <c r="C538" s="5" t="s">
         <v>58</v>
@@ -41098,10 +41094,10 @@
     </row>
     <row r="539" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A539" s="5" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B539" s="5" t="s">
         <v>1521</v>
-      </c>
-      <c r="B539" s="5" t="s">
-        <v>1522</v>
       </c>
       <c r="C539" s="5" t="s">
         <v>58</v>
@@ -41172,10 +41168,10 @@
     </row>
     <row r="540" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A540" s="5" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B540" s="18" t="s">
         <v>1523</v>
-      </c>
-      <c r="B540" s="18" t="s">
-        <v>1524</v>
       </c>
       <c r="C540" s="18" t="s">
         <v>58</v>
@@ -41192,7 +41188,7 @@
       <c r="G540" s="18"/>
       <c r="H540" s="18"/>
       <c r="I540" s="18" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="J540" s="18"/>
       <c r="K540">
@@ -41217,7 +41213,7 @@
         <v>6</v>
       </c>
       <c r="R540" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="S540">
         <v>422</v>
@@ -41226,7 +41222,7 @@
         <v>25</v>
       </c>
       <c r="U540" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="V540">
         <v>10.176</v>
@@ -41243,10 +41239,10 @@
     </row>
     <row r="541" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A541" s="5" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B541" s="18" t="s">
         <v>1526</v>
-      </c>
-      <c r="B541" s="18" t="s">
-        <v>1527</v>
       </c>
       <c r="C541" s="18" t="s">
         <v>58</v>
@@ -41263,7 +41259,7 @@
       <c r="G541" s="18"/>
       <c r="H541" s="18"/>
       <c r="I541" s="18" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="J541" s="18"/>
       <c r="K541">
@@ -41314,10 +41310,10 @@
     </row>
     <row r="542" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A542" s="5" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B542" s="5" t="s">
         <v>1528</v>
-      </c>
-      <c r="B542" s="5" t="s">
-        <v>1529</v>
       </c>
       <c r="C542" s="5" t="s">
         <v>58</v>
@@ -41362,7 +41358,7 @@
         <v>5</v>
       </c>
       <c r="R542" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="S542">
         <v>421</v>
@@ -41388,10 +41384,10 @@
     </row>
     <row r="543" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A543" s="5" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B543" s="5" t="s">
         <v>1530</v>
-      </c>
-      <c r="B543" s="5" t="s">
-        <v>1531</v>
       </c>
       <c r="C543" s="5" t="s">
         <v>58</v>
@@ -41462,10 +41458,10 @@
     </row>
     <row r="544" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A544" s="5" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B544" s="5" t="s">
         <v>1532</v>
-      </c>
-      <c r="B544" s="5" t="s">
-        <v>1533</v>
       </c>
       <c r="C544" s="5" t="s">
         <v>58</v>
@@ -41519,7 +41515,7 @@
         <v>25</v>
       </c>
       <c r="U544" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="V544">
         <v>10.427</v>
@@ -41536,10 +41532,10 @@
     </row>
     <row r="545" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A545" s="5" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B545" s="5" t="s">
         <v>1535</v>
-      </c>
-      <c r="B545" s="5" t="s">
-        <v>1536</v>
       </c>
       <c r="C545" s="5" t="s">
         <v>58</v>
@@ -41593,7 +41589,7 @@
         <v>25</v>
       </c>
       <c r="U545" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="V545">
         <v>9.4779999999999998</v>
@@ -41610,10 +41606,10 @@
     </row>
     <row r="546" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A546" s="5" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B546" s="5" t="s">
         <v>1538</v>
-      </c>
-      <c r="B546" s="5" t="s">
-        <v>1539</v>
       </c>
       <c r="C546" s="5" t="s">
         <v>58</v>
@@ -41678,10 +41674,10 @@
     </row>
     <row r="547" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A547" s="5" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B547" s="5" t="s">
         <v>1540</v>
-      </c>
-      <c r="B547" s="5" t="s">
-        <v>1541</v>
       </c>
       <c r="C547" s="5" t="s">
         <v>58</v>
@@ -41720,7 +41716,7 @@
         <v>5</v>
       </c>
       <c r="R547" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="S547">
         <v>442</v>
@@ -41729,7 +41725,7 @@
         <v>25</v>
       </c>
       <c r="U547" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="V547">
         <v>8.9459999999999997</v>
@@ -41746,10 +41742,10 @@
     </row>
     <row r="548" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A548" s="5" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B548" s="5" t="s">
         <v>1542</v>
-      </c>
-      <c r="B548" s="5" t="s">
-        <v>1543</v>
       </c>
       <c r="C548" s="5" t="s">
         <v>58</v>
@@ -41814,10 +41810,10 @@
     </row>
     <row r="549" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A549" s="5" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B549" s="16" t="s">
         <v>1544</v>
-      </c>
-      <c r="B549" s="16" t="s">
-        <v>1545</v>
       </c>
       <c r="C549" s="5" t="s">
         <v>58</v>
@@ -41859,10 +41855,10 @@
         <v>80</v>
       </c>
       <c r="Q549" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="R549" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="S549">
         <v>442</v>
@@ -41871,7 +41867,7 @@
         <v>25</v>
       </c>
       <c r="U549" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="V549">
         <v>9.4350000000000005</v>
@@ -41888,10 +41884,10 @@
     </row>
     <row r="550" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A550" s="5" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B550" s="18" t="s">
         <v>1546</v>
-      </c>
-      <c r="B550" s="18" t="s">
-        <v>1547</v>
       </c>
       <c r="C550" s="18" t="s">
         <v>58</v>
@@ -41908,7 +41904,7 @@
       <c r="G550" s="18"/>
       <c r="H550" s="18"/>
       <c r="I550" s="18" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="J550" s="18"/>
       <c r="K550">
@@ -41933,7 +41929,7 @@
         <v>5</v>
       </c>
       <c r="R550" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="S550">
         <v>442</v>
@@ -41959,10 +41955,10 @@
     </row>
     <row r="551" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A551" s="5" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B551" s="5" t="s">
         <v>1549</v>
-      </c>
-      <c r="B551" s="5" t="s">
-        <v>1550</v>
       </c>
       <c r="C551" s="5" t="s">
         <v>58</v>
@@ -42033,10 +42029,10 @@
     </row>
     <row r="552" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A552" s="5" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B552" s="5" t="s">
         <v>1551</v>
-      </c>
-      <c r="B552" s="5" t="s">
-        <v>1552</v>
       </c>
       <c r="C552" s="5" t="s">
         <v>58</v>
@@ -42054,7 +42050,7 @@
         <v>36</v>
       </c>
       <c r="I552" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="K552">
         <v>60</v>
@@ -42078,7 +42074,7 @@
         <v>5</v>
       </c>
       <c r="R552" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="S552">
         <v>445</v>
@@ -42104,10 +42100,10 @@
     </row>
     <row r="553" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A553" s="5" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B553" s="5" t="s">
         <v>1555</v>
-      </c>
-      <c r="B553" s="5" t="s">
-        <v>1556</v>
       </c>
       <c r="C553" s="5" t="s">
         <v>58</v>
@@ -42152,7 +42148,7 @@
         <v>5</v>
       </c>
       <c r="R553" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="S553">
         <v>443</v>
@@ -42178,10 +42174,10 @@
     </row>
     <row r="554" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A554" s="5" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B554" s="5" t="s">
         <v>1557</v>
-      </c>
-      <c r="B554" s="5" t="s">
-        <v>1558</v>
       </c>
       <c r="C554" s="5" t="s">
         <v>58</v>
@@ -42220,7 +42216,7 @@
         <v>5</v>
       </c>
       <c r="R554" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="S554">
         <v>421</v>
@@ -42246,10 +42242,10 @@
     </row>
     <row r="555" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A555" s="5" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B555" s="5" t="s">
         <v>1560</v>
-      </c>
-      <c r="B555" s="5" t="s">
-        <v>1561</v>
       </c>
       <c r="C555" s="5" t="s">
         <v>58</v>
@@ -42303,7 +42299,7 @@
         <v>25</v>
       </c>
       <c r="U555" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="V555">
         <v>9.7810000000000006</v>
@@ -42320,10 +42316,10 @@
     </row>
     <row r="556" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A556" s="5" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B556" s="5" t="s">
         <v>1563</v>
-      </c>
-      <c r="B556" s="5" t="s">
-        <v>1564</v>
       </c>
       <c r="C556" s="5" t="s">
         <v>58</v>
@@ -42341,7 +42337,7 @@
         <v>31</v>
       </c>
       <c r="I556" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="K556">
         <v>78</v>
@@ -42374,7 +42370,7 @@
         <v>25</v>
       </c>
       <c r="U556" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="V556">
         <v>9.3190000000000008</v>
@@ -42391,10 +42387,10 @@
     </row>
     <row r="557" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A557" s="5" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B557" s="5" t="s">
         <v>1566</v>
-      </c>
-      <c r="B557" s="5" t="s">
-        <v>1567</v>
       </c>
       <c r="C557" s="5" t="s">
         <v>58</v>
@@ -42433,7 +42429,7 @@
         <v>5</v>
       </c>
       <c r="R557" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="S557">
         <v>421</v>
@@ -42459,10 +42455,10 @@
     </row>
     <row r="558" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A558" s="5" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B558" s="5" t="s">
         <v>1568</v>
-      </c>
-      <c r="B558" s="5" t="s">
-        <v>1569</v>
       </c>
       <c r="C558" s="5" t="s">
         <v>58</v>
@@ -42480,7 +42476,7 @@
         <v>30</v>
       </c>
       <c r="I558" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="K558">
         <v>80</v>
@@ -42530,10 +42526,10 @@
     </row>
     <row r="559" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A559" s="5" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B559" s="5" t="s">
         <v>1571</v>
-      </c>
-      <c r="B559" s="5" t="s">
-        <v>1572</v>
       </c>
       <c r="C559" s="5" t="s">
         <v>58</v>
@@ -42551,7 +42547,7 @@
         <v>30</v>
       </c>
       <c r="I559" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="K559">
         <v>94</v>
@@ -42601,10 +42597,10 @@
     </row>
     <row r="560" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A560" s="5" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B560" s="5" t="s">
         <v>1573</v>
-      </c>
-      <c r="B560" s="5" t="s">
-        <v>1574</v>
       </c>
       <c r="C560" s="5" t="s">
         <v>58</v>
@@ -42620,7 +42616,7 @@
       </c>
       <c r="H560" s="4"/>
       <c r="I560" s="4" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="J560" s="4"/>
       <c r="K560">
@@ -42645,7 +42641,7 @@
         <v>5</v>
       </c>
       <c r="R560" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="S560">
         <v>442</v>
@@ -42654,7 +42650,7 @@
         <v>25</v>
       </c>
       <c r="U560" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="V560">
         <v>9.8689999999999998</v>
@@ -42671,10 +42667,10 @@
     </row>
     <row r="561" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A561" s="5" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B561" s="5" t="s">
         <v>1577</v>
-      </c>
-      <c r="B561" s="5" t="s">
-        <v>1578</v>
       </c>
       <c r="C561" s="5" t="s">
         <v>58</v>
@@ -42699,7 +42695,7 @@
         <v>5.8</v>
       </c>
       <c r="K561" s="7" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="L561">
         <v>167</v>
@@ -42746,10 +42742,10 @@
     </row>
     <row r="562" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A562" s="5" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B562" s="5" t="s">
         <v>1580</v>
-      </c>
-      <c r="B562" s="5" t="s">
-        <v>1581</v>
       </c>
       <c r="C562" s="5" t="s">
         <v>58</v>
@@ -42794,7 +42790,7 @@
         <v>5</v>
       </c>
       <c r="R562" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="S562">
         <v>442</v>
@@ -42803,7 +42799,7 @@
         <v>25</v>
       </c>
       <c r="U562" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="V562">
         <v>9.6959999999999997</v>
@@ -42820,10 +42816,10 @@
     </row>
     <row r="563" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A563" s="5" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B563" s="5" t="s">
         <v>1583</v>
-      </c>
-      <c r="B563" s="5" t="s">
-        <v>1584</v>
       </c>
       <c r="C563" s="5" t="s">
         <v>58</v>
@@ -42839,7 +42835,7 @@
       </c>
       <c r="H563" s="4"/>
       <c r="I563" s="4" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="J563" s="4"/>
       <c r="K563">
@@ -42890,10 +42886,10 @@
     </row>
     <row r="564" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A564" s="5" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B564" s="5" t="s">
         <v>1585</v>
-      </c>
-      <c r="B564" s="5" t="s">
-        <v>1586</v>
       </c>
       <c r="C564" s="5" t="s">
         <v>58</v>
@@ -42911,7 +42907,7 @@
         <v>45.3</v>
       </c>
       <c r="I564" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="K564">
         <v>80</v>
@@ -42935,7 +42931,7 @@
         <v>5</v>
       </c>
       <c r="R564" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="S564">
         <v>422</v>
@@ -42961,10 +42957,10 @@
     </row>
     <row r="565" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A565" s="5" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B565" s="5" t="s">
         <v>1588</v>
-      </c>
-      <c r="B565" s="5" t="s">
-        <v>1589</v>
       </c>
       <c r="C565" s="5" t="s">
         <v>58</v>
@@ -42980,7 +42976,7 @@
       </c>
       <c r="H565" s="4"/>
       <c r="I565" s="4" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="J565" s="4"/>
       <c r="K565">
@@ -43031,10 +43027,10 @@
     </row>
     <row r="566" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A566" s="5" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B566" s="5" t="s">
         <v>1590</v>
-      </c>
-      <c r="B566" s="5" t="s">
-        <v>1591</v>
       </c>
       <c r="C566" s="5" t="s">
         <v>58</v>
@@ -43082,7 +43078,7 @@
         <v>25</v>
       </c>
       <c r="U566" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="V566">
         <v>9.8659999999999997</v>
@@ -43099,10 +43095,10 @@
     </row>
     <row r="567" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A567" s="5" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B567" s="5" t="s">
         <v>1593</v>
-      </c>
-      <c r="B567" s="5" t="s">
-        <v>1594</v>
       </c>
       <c r="C567" s="5" t="s">
         <v>58</v>
@@ -43147,7 +43143,7 @@
         <v>5</v>
       </c>
       <c r="R567" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="S567">
         <v>422</v>
@@ -43173,10 +43169,10 @@
     </row>
     <row r="568" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A568" s="5" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B568" s="5" t="s">
         <v>1596</v>
-      </c>
-      <c r="B568" s="5" t="s">
-        <v>1597</v>
       </c>
       <c r="C568" s="5" t="s">
         <v>58</v>
@@ -43194,7 +43190,7 @@
         <v>14</v>
       </c>
       <c r="I568" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="K568">
         <v>73</v>
@@ -43218,7 +43214,7 @@
         <v>5</v>
       </c>
       <c r="R568" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="S568">
         <v>422</v>
@@ -43227,7 +43223,7 @@
         <v>25</v>
       </c>
       <c r="U568" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="V568">
         <v>9.2629999999999999</v>
@@ -43244,10 +43240,10 @@
     </row>
     <row r="569" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A569" s="5" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B569" s="5" t="s">
         <v>1600</v>
-      </c>
-      <c r="B569" s="5" t="s">
-        <v>1601</v>
       </c>
       <c r="C569" s="5" t="s">
         <v>58</v>
@@ -43286,7 +43282,7 @@
         <v>5</v>
       </c>
       <c r="R569" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="S569">
         <v>442</v>
@@ -43295,7 +43291,7 @@
         <v>25</v>
       </c>
       <c r="U569" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="V569">
         <v>8.3360000000000003</v>
@@ -43312,10 +43308,10 @@
     </row>
     <row r="570" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A570" s="5" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B570" s="5" t="s">
         <v>1604</v>
-      </c>
-      <c r="B570" s="5" t="s">
-        <v>1605</v>
       </c>
       <c r="C570" s="5" t="s">
         <v>58</v>
@@ -43354,7 +43350,7 @@
         <v>5</v>
       </c>
       <c r="R570" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="S570">
         <v>442</v>
@@ -43380,10 +43376,10 @@
     </row>
     <row r="571" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A571" s="5" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B571" s="5" t="s">
         <v>1607</v>
-      </c>
-      <c r="B571" s="5" t="s">
-        <v>1608</v>
       </c>
       <c r="C571" s="5" t="s">
         <v>58</v>
@@ -43454,10 +43450,10 @@
     </row>
     <row r="572" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A572" s="5" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B572" s="5" t="s">
         <v>1609</v>
-      </c>
-      <c r="B572" s="5" t="s">
-        <v>1610</v>
       </c>
       <c r="C572" s="5" t="s">
         <v>58</v>
@@ -43528,10 +43524,10 @@
     </row>
     <row r="573" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A573" s="5" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B573" s="5" t="s">
         <v>1611</v>
-      </c>
-      <c r="B573" s="5" t="s">
-        <v>1612</v>
       </c>
       <c r="C573" s="5" t="s">
         <v>58</v>
@@ -43549,7 +43545,7 @@
         <v>5.7</v>
       </c>
       <c r="I573" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="K573">
         <v>64</v>
@@ -43573,7 +43569,7 @@
         <v>5</v>
       </c>
       <c r="R573" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="S573">
         <v>428</v>
@@ -43599,10 +43595,10 @@
     </row>
     <row r="574" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A574" s="5" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B574" s="5" t="s">
         <v>1615</v>
-      </c>
-      <c r="B574" s="5" t="s">
-        <v>1616</v>
       </c>
       <c r="C574" s="5" t="s">
         <v>58</v>
@@ -43620,7 +43616,7 @@
         <v>23</v>
       </c>
       <c r="I574" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="K574">
         <v>82</v>
@@ -43644,7 +43640,7 @@
         <v>5</v>
       </c>
       <c r="R574" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="S574">
         <v>442</v>
@@ -43653,7 +43649,7 @@
         <v>25</v>
       </c>
       <c r="U574" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="V574">
         <v>9.843</v>
@@ -43670,10 +43666,10 @@
     </row>
     <row r="575" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A575" s="5" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B575" s="16" t="s">
         <v>1620</v>
-      </c>
-      <c r="B575" s="16" t="s">
-        <v>1621</v>
       </c>
       <c r="C575" s="5" t="s">
         <v>58</v>
@@ -43715,10 +43711,10 @@
         <v>80</v>
       </c>
       <c r="Q575" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="R575" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="S575">
         <v>442</v>
@@ -43727,7 +43723,7 @@
         <v>25</v>
       </c>
       <c r="U575" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="V575">
         <v>9.4670000000000005</v>
@@ -43744,10 +43740,10 @@
     </row>
     <row r="576" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A576" s="5" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B576" s="16" t="s">
         <v>1623</v>
-      </c>
-      <c r="B576" s="16" t="s">
-        <v>1624</v>
       </c>
       <c r="C576" s="5" t="s">
         <v>58</v>
@@ -43783,7 +43779,7 @@
         <v>6</v>
       </c>
       <c r="Q576" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="R576" t="s">
         <v>6</v>
@@ -43812,10 +43808,10 @@
     </row>
     <row r="577" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A577" s="5" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B577" s="5" t="s">
         <v>1625</v>
-      </c>
-      <c r="B577" s="5" t="s">
-        <v>1626</v>
       </c>
       <c r="C577" s="5" t="s">
         <v>58</v>
@@ -43886,10 +43882,10 @@
     </row>
     <row r="578" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A578" s="5" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B578" s="5" t="s">
         <v>1627</v>
-      </c>
-      <c r="B578" s="5" t="s">
-        <v>1628</v>
       </c>
       <c r="C578" s="5" t="s">
         <v>58</v>
@@ -43931,7 +43927,7 @@
         <v>5</v>
       </c>
       <c r="R578" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="S578">
         <v>422</v>
@@ -43957,10 +43953,10 @@
     </row>
     <row r="579" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A579" s="5" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B579" s="5" t="s">
         <v>1629</v>
-      </c>
-      <c r="B579" s="5" t="s">
-        <v>1630</v>
       </c>
       <c r="C579" s="5" t="s">
         <v>58</v>
@@ -43999,7 +43995,7 @@
         <v>5</v>
       </c>
       <c r="R579" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="S579">
         <v>442</v>
@@ -44025,10 +44021,10 @@
     </row>
     <row r="580" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A580" s="5" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B580" s="5" t="s">
         <v>1631</v>
-      </c>
-      <c r="B580" s="5" t="s">
-        <v>1632</v>
       </c>
       <c r="C580" s="5" t="s">
         <v>58</v>
@@ -44073,7 +44069,7 @@
         <v>5</v>
       </c>
       <c r="R580" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="S580">
         <v>422</v>
@@ -44099,10 +44095,10 @@
     </row>
     <row r="581" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A581" s="5" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B581" s="5" t="s">
         <v>1634</v>
-      </c>
-      <c r="B581" s="5" t="s">
-        <v>1635</v>
       </c>
       <c r="C581" s="5" t="s">
         <v>58</v>
@@ -44120,7 +44116,7 @@
         <v>30</v>
       </c>
       <c r="I581" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="K581">
         <v>80</v>
@@ -44144,7 +44140,7 @@
         <v>6</v>
       </c>
       <c r="R581" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="S581">
         <v>442</v>
@@ -44153,7 +44149,7 @@
         <v>25</v>
       </c>
       <c r="U581" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="V581">
         <v>9.298</v>
@@ -44170,10 +44166,10 @@
     </row>
     <row r="582" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A582" s="5" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B582" s="5" t="s">
         <v>1638</v>
-      </c>
-      <c r="B582" s="5" t="s">
-        <v>1639</v>
       </c>
       <c r="C582" s="5" t="s">
         <v>58</v>
@@ -44244,10 +44240,10 @@
     </row>
     <row r="583" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A583" s="5" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B583" s="5" t="s">
         <v>1640</v>
-      </c>
-      <c r="B583" s="5" t="s">
-        <v>1641</v>
       </c>
       <c r="C583" s="5" t="s">
         <v>58</v>
@@ -44295,7 +44291,7 @@
         <v>25</v>
       </c>
       <c r="U583" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="V583">
         <v>8.923</v>
@@ -44312,10 +44308,10 @@
     </row>
     <row r="584" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A584" s="5" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B584" s="5" t="s">
         <v>1642</v>
-      </c>
-      <c r="B584" s="5" t="s">
-        <v>1643</v>
       </c>
       <c r="C584" s="5" t="s">
         <v>58</v>
@@ -44380,10 +44376,10 @@
     </row>
     <row r="585" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A585" s="5" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B585" s="5" t="s">
         <v>1644</v>
-      </c>
-      <c r="B585" s="5" t="s">
-        <v>1645</v>
       </c>
       <c r="C585" s="5" t="s">
         <v>58</v>
@@ -44425,7 +44421,7 @@
         <v>5</v>
       </c>
       <c r="R585" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="S585">
         <v>431</v>
@@ -44434,7 +44430,7 @@
         <v>25</v>
       </c>
       <c r="U585" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="V585">
         <v>9.7189999999999994</v>
@@ -44451,10 +44447,10 @@
     </row>
     <row r="586" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A586" s="5" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B586" s="5" t="s">
         <v>1647</v>
-      </c>
-      <c r="B586" s="5" t="s">
-        <v>1648</v>
       </c>
       <c r="C586" s="5" t="s">
         <v>58</v>
@@ -44525,10 +44521,10 @@
     </row>
     <row r="587" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A587" s="5" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B587" s="5" t="s">
         <v>1649</v>
-      </c>
-      <c r="B587" s="5" t="s">
-        <v>1650</v>
       </c>
       <c r="C587" s="5" t="s">
         <v>58</v>
@@ -44599,10 +44595,10 @@
     </row>
     <row r="588" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A588" s="5" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B588" s="5" t="s">
         <v>1651</v>
-      </c>
-      <c r="B588" s="5" t="s">
-        <v>1652</v>
       </c>
       <c r="C588" s="5" t="s">
         <v>58</v>
@@ -44673,10 +44669,10 @@
     </row>
     <row r="589" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A589" s="5" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B589" s="5" t="s">
         <v>1653</v>
-      </c>
-      <c r="B589" s="5" t="s">
-        <v>1654</v>
       </c>
       <c r="C589" s="5" t="s">
         <v>58</v>
@@ -44721,7 +44717,7 @@
         <v>5</v>
       </c>
       <c r="R589" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="S589">
         <v>442</v>
@@ -44730,7 +44726,7 @@
         <v>25</v>
       </c>
       <c r="U589" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="V589">
         <v>8.81</v>
@@ -44747,10 +44743,10 @@
     </row>
     <row r="590" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A590" s="5" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B590" s="5" t="s">
         <v>1657</v>
-      </c>
-      <c r="B590" s="5" t="s">
-        <v>1658</v>
       </c>
       <c r="C590" s="5" t="s">
         <v>58</v>
@@ -44821,10 +44817,10 @@
     </row>
     <row r="591" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A591" s="5" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B591" s="5" t="s">
         <v>1659</v>
-      </c>
-      <c r="B591" s="5" t="s">
-        <v>1660</v>
       </c>
       <c r="C591" s="5" t="s">
         <v>58</v>
@@ -44889,10 +44885,10 @@
     </row>
     <row r="592" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A592" s="5" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B592" s="5" t="s">
         <v>1661</v>
-      </c>
-      <c r="B592" s="5" t="s">
-        <v>1662</v>
       </c>
       <c r="C592" s="5" t="s">
         <v>58</v>
@@ -44957,10 +44953,10 @@
     </row>
     <row r="593" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A593" s="5" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B593" s="5" t="s">
         <v>1663</v>
-      </c>
-      <c r="B593" s="5" t="s">
-        <v>1664</v>
       </c>
       <c r="C593" s="5" t="s">
         <v>58</v>
@@ -45005,7 +45001,7 @@
         <v>5</v>
       </c>
       <c r="R593" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="S593">
         <v>304</v>
@@ -45031,10 +45027,10 @@
     </row>
     <row r="594" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A594" s="5" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B594" s="5" t="s">
         <v>1665</v>
-      </c>
-      <c r="B594" s="5" t="s">
-        <v>1666</v>
       </c>
       <c r="C594" s="5" t="s">
         <v>58</v>
@@ -45076,7 +45072,7 @@
         <v>5</v>
       </c>
       <c r="R594" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="S594">
         <v>421</v>
@@ -45102,10 +45098,10 @@
     </row>
     <row r="595" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A595" s="5" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B595" s="5" t="s">
         <v>1668</v>
-      </c>
-      <c r="B595" s="5" t="s">
-        <v>1669</v>
       </c>
       <c r="C595" s="5" t="s">
         <v>58</v>
@@ -45147,7 +45143,7 @@
         <v>5</v>
       </c>
       <c r="R595" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="S595">
         <v>432</v>
@@ -45173,10 +45169,10 @@
     </row>
     <row r="596" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A596" s="5" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B596" s="5" t="s">
         <v>1671</v>
-      </c>
-      <c r="B596" s="5" t="s">
-        <v>1672</v>
       </c>
       <c r="C596" s="5" t="s">
         <v>58</v>
@@ -45236,7 +45232,7 @@
         <v>9.8309999999999995</v>
       </c>
       <c r="W596" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="X596" t="s">
         <v>5</v>
@@ -45247,10 +45243,10 @@
     </row>
     <row r="597" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A597" s="5" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B597" s="5" t="s">
         <v>1674</v>
-      </c>
-      <c r="B597" s="5" t="s">
-        <v>1675</v>
       </c>
       <c r="C597" s="5" t="s">
         <v>58</v>
@@ -45268,7 +45264,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="I597" s="5" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="K597">
         <v>98</v>
@@ -45292,7 +45288,7 @@
         <v>5</v>
       </c>
       <c r="R597" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="S597">
         <v>422</v>
@@ -45301,7 +45297,7 @@
         <v>25</v>
       </c>
       <c r="U597" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="V597">
         <v>9.0980000000000008</v>
@@ -45318,10 +45314,10 @@
     </row>
     <row r="598" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A598" s="5" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B598" s="5" t="s">
         <v>1679</v>
-      </c>
-      <c r="B598" s="5" t="s">
-        <v>1680</v>
       </c>
       <c r="C598" s="5" t="s">
         <v>58</v>
@@ -45339,7 +45335,7 @@
         <v>11.8</v>
       </c>
       <c r="I598" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="K598">
         <v>79</v>
@@ -45363,7 +45359,7 @@
         <v>5</v>
       </c>
       <c r="R598" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="S598">
         <v>422</v>
@@ -45372,7 +45368,7 @@
         <v>25</v>
       </c>
       <c r="U598" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="V598">
         <v>9.6940000000000008</v>
@@ -45389,10 +45385,10 @@
     </row>
     <row r="599" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A599" s="5" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="B599" s="19" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="C599" s="5" t="s">
         <v>58</v>
@@ -45463,10 +45459,10 @@
     </row>
     <row r="600" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A600" s="5" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B600" s="5" t="s">
         <v>1683</v>
-      </c>
-      <c r="B600" s="5" t="s">
-        <v>1684</v>
       </c>
       <c r="C600" s="5" t="s">
         <v>58</v>
@@ -45512,7 +45508,7 @@
         <v>5</v>
       </c>
       <c r="R600" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="S600">
         <v>442</v>
@@ -45538,10 +45534,10 @@
     </row>
     <row r="601" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A601" s="5" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B601" s="5" t="s">
         <v>1686</v>
-      </c>
-      <c r="B601" s="5" t="s">
-        <v>1687</v>
       </c>
       <c r="C601" s="5" t="s">
         <v>58</v>
@@ -45559,7 +45555,7 @@
         <v>35.200000000000003</v>
       </c>
       <c r="I601" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="K601">
         <v>110</v>
@@ -45609,10 +45605,10 @@
     </row>
     <row r="602" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A602" s="5" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B602" s="4" t="s">
         <v>1688</v>
-      </c>
-      <c r="B602" s="4" t="s">
-        <v>1689</v>
       </c>
       <c r="C602" s="5" t="s">
         <v>58</v>
@@ -45628,7 +45624,7 @@
       </c>
       <c r="H602" s="4"/>
       <c r="I602" s="4" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="J602" s="4"/>
       <c r="K602">
@@ -45662,7 +45658,7 @@
         <v>25</v>
       </c>
       <c r="U602" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="V602">
         <v>9.7140000000000004</v>
@@ -45679,10 +45675,10 @@
     </row>
     <row r="603" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A603" s="5" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B603" s="5" t="s">
         <v>1690</v>
-      </c>
-      <c r="B603" s="5" t="s">
-        <v>1691</v>
       </c>
       <c r="C603" s="5" t="s">
         <v>58</v>
@@ -45736,7 +45732,7 @@
         <v>25</v>
       </c>
       <c r="U603" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="V603">
         <v>9.4510000000000005</v>
@@ -45753,10 +45749,10 @@
     </row>
     <row r="604" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A604" s="5" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B604" s="4" t="s">
         <v>1692</v>
-      </c>
-      <c r="B604" s="4" t="s">
-        <v>1693</v>
       </c>
       <c r="C604" s="5" t="s">
         <v>58</v>
@@ -45772,7 +45768,7 @@
       </c>
       <c r="H604" s="4"/>
       <c r="I604" s="4" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="J604" s="4"/>
       <c r="K604">
@@ -45797,7 +45793,7 @@
         <v>5</v>
       </c>
       <c r="R604" s="1" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="S604">
         <v>442</v>
@@ -45806,7 +45802,7 @@
         <v>25</v>
       </c>
       <c r="U604" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="V604">
         <v>10.141</v>
@@ -45823,10 +45819,10 @@
     </row>
     <row r="605" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A605" s="5" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B605" s="5" t="s">
         <v>1695</v>
-      </c>
-      <c r="B605" s="5" t="s">
-        <v>1696</v>
       </c>
       <c r="C605" s="5" t="s">
         <v>58</v>
@@ -45897,10 +45893,10 @@
     </row>
     <row r="606" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A606" s="5" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B606" s="5" t="s">
         <v>1697</v>
-      </c>
-      <c r="B606" s="5" t="s">
-        <v>1698</v>
       </c>
       <c r="C606" s="5" t="s">
         <v>58</v>
@@ -45954,7 +45950,7 @@
         <v>25</v>
       </c>
       <c r="U606" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="V606">
         <v>9.9410000000000007</v>
@@ -45971,10 +45967,10 @@
     </row>
     <row r="607" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A607" s="5" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B607" s="5" t="s">
         <v>1700</v>
-      </c>
-      <c r="B607" s="5" t="s">
-        <v>1701</v>
       </c>
       <c r="C607" s="5" t="s">
         <v>58</v>
@@ -46042,10 +46038,10 @@
     </row>
     <row r="608" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A608" s="5" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B608" s="5" t="s">
         <v>1702</v>
-      </c>
-      <c r="B608" s="5" t="s">
-        <v>1703</v>
       </c>
       <c r="C608" s="5" t="s">
         <v>58</v>
@@ -46112,10 +46108,10 @@
     </row>
     <row r="609" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A609" s="5" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B609" s="5" t="s">
         <v>1704</v>
-      </c>
-      <c r="B609" s="5" t="s">
-        <v>1705</v>
       </c>
       <c r="C609" s="5" t="s">
         <v>58</v>
@@ -46186,10 +46182,10 @@
     </row>
     <row r="610" spans="1:25" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A610" s="5" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B610" s="5" t="s">
         <v>1706</v>
-      </c>
-      <c r="B610" s="5" t="s">
-        <v>1707</v>
       </c>
       <c r="C610" s="5" t="s">
         <v>58</v>
@@ -46234,7 +46230,7 @@
         <v>5</v>
       </c>
       <c r="R610" s="1" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="S610">
         <v>442</v>
@@ -46260,10 +46256,10 @@
     </row>
     <row r="611" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A611" s="5" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B611" s="5" t="s">
         <v>1709</v>
-      </c>
-      <c r="B611" s="5" t="s">
-        <v>1710</v>
       </c>
       <c r="C611" s="5" t="s">
         <v>58</v>
@@ -46306,7 +46302,7 @@
         <v>5</v>
       </c>
       <c r="R611" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="S611">
         <v>442</v>
@@ -46332,10 +46328,10 @@
     </row>
     <row r="612" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A612" s="5" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B612" s="5" t="s">
         <v>1711</v>
-      </c>
-      <c r="B612" s="5" t="s">
-        <v>1712</v>
       </c>
       <c r="C612" s="5" t="s">
         <v>58</v>
@@ -46376,7 +46372,7 @@
         <v>5</v>
       </c>
       <c r="R612" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="S612">
         <v>442</v>
@@ -46402,10 +46398,10 @@
     </row>
     <row r="613" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A613" s="5" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B613" s="5" t="s">
         <v>1713</v>
-      </c>
-      <c r="B613" s="5" t="s">
-        <v>1714</v>
       </c>
       <c r="C613" s="5" t="s">
         <v>58</v>
@@ -46476,10 +46472,10 @@
     </row>
     <row r="614" spans="1:25" ht="58" x14ac:dyDescent="0.35">
       <c r="A614" s="5" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B614" s="5" t="s">
         <v>1715</v>
-      </c>
-      <c r="B614" s="5" t="s">
-        <v>1716</v>
       </c>
       <c r="C614" s="5" t="s">
         <v>58</v>
@@ -46524,7 +46520,7 @@
         <v>5</v>
       </c>
       <c r="R614" s="1" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="S614">
         <v>441</v>
@@ -46550,10 +46546,10 @@
     </row>
     <row r="615" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A615" s="5" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B615" s="5" t="s">
         <v>1718</v>
-      </c>
-      <c r="B615" s="5" t="s">
-        <v>1719</v>
       </c>
       <c r="C615" s="5" t="s">
         <v>58</v>
@@ -46624,10 +46620,10 @@
     </row>
     <row r="616" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A616" s="5" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B616" s="5" t="s">
         <v>1720</v>
-      </c>
-      <c r="B616" s="5" t="s">
-        <v>1721</v>
       </c>
       <c r="C616" s="5" t="s">
         <v>58</v>
@@ -46672,7 +46668,7 @@
         <v>5</v>
       </c>
       <c r="R616" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="S616">
         <v>445</v>
@@ -46698,10 +46694,10 @@
     </row>
     <row r="617" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A617" s="5" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B617" s="16" t="s">
         <v>1723</v>
-      </c>
-      <c r="B617" s="16" t="s">
-        <v>1724</v>
       </c>
       <c r="C617" s="5" t="s">
         <v>58</v>
@@ -46737,7 +46733,7 @@
         <v>80</v>
       </c>
       <c r="Q617" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="R617" t="s">
         <v>6</v>
@@ -46758,7 +46754,7 @@
         <v>12.744999999999999</v>
       </c>
       <c r="X617" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="Y617" t="s">
         <v>5</v>
@@ -46766,10 +46762,10 @@
     </row>
     <row r="618" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A618" s="5" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B618" s="5" t="s">
         <v>1726</v>
-      </c>
-      <c r="B618" s="5" t="s">
-        <v>1727</v>
       </c>
       <c r="C618" s="5" t="s">
         <v>58</v>
@@ -46840,10 +46836,10 @@
     </row>
     <row r="619" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A619" s="5" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B619" s="16" t="s">
         <v>1728</v>
-      </c>
-      <c r="B619" s="16" t="s">
-        <v>1729</v>
       </c>
       <c r="C619" s="5" t="s">
         <v>58</v>
@@ -46879,10 +46875,10 @@
         <v>6</v>
       </c>
       <c r="Q619" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="R619" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="S619">
         <v>445</v>
@@ -46908,10 +46904,10 @@
     </row>
     <row r="620" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A620" s="5" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B620" s="5" t="s">
         <v>1730</v>
-      </c>
-      <c r="B620" s="5" t="s">
-        <v>1731</v>
       </c>
       <c r="C620" s="5" t="s">
         <v>58</v>
@@ -46956,7 +46952,7 @@
         <v>5</v>
       </c>
       <c r="R620" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="S620">
         <v>422</v>
@@ -46982,10 +46978,10 @@
     </row>
     <row r="621" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A621" s="5" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B621" s="5" t="s">
         <v>1733</v>
-      </c>
-      <c r="B621" s="5" t="s">
-        <v>1734</v>
       </c>
       <c r="C621" s="5" t="s">
         <v>58</v>
@@ -47056,10 +47052,10 @@
     </row>
     <row r="622" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A622" s="5" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B622" s="5" t="s">
         <v>1735</v>
-      </c>
-      <c r="B622" s="5" t="s">
-        <v>1736</v>
       </c>
       <c r="C622" s="5" t="s">
         <v>58</v>
@@ -47104,7 +47100,7 @@
         <v>6</v>
       </c>
       <c r="R622" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="S622">
         <v>444</v>
@@ -47113,7 +47109,7 @@
         <v>25</v>
       </c>
       <c r="U622" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="V622">
         <v>9.9290000000000003</v>
@@ -47130,10 +47126,10 @@
     </row>
     <row r="623" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A623" s="5" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B623" s="5" t="s">
         <v>1739</v>
-      </c>
-      <c r="B623" s="5" t="s">
-        <v>1740</v>
       </c>
       <c r="C623" s="5" t="s">
         <v>58</v>
@@ -47178,7 +47174,7 @@
         <v>5</v>
       </c>
       <c r="R623" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="S623">
         <v>444</v>
@@ -47187,7 +47183,7 @@
         <v>25</v>
       </c>
       <c r="U623" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="V623">
         <v>9.6690000000000005</v>
@@ -47204,10 +47200,10 @@
     </row>
     <row r="624" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A624" s="5" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B624" s="5" t="s">
         <v>1741</v>
-      </c>
-      <c r="B624" s="5" t="s">
-        <v>1742</v>
       </c>
       <c r="C624" s="5" t="s">
         <v>58</v>
@@ -47278,10 +47274,10 @@
     </row>
     <row r="625" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A625" s="5" t="s">
+        <v>1742</v>
+      </c>
+      <c r="B625" s="5" t="s">
         <v>1743</v>
-      </c>
-      <c r="B625" s="5" t="s">
-        <v>1744</v>
       </c>
       <c r="C625" s="5" t="s">
         <v>58</v>
@@ -47297,7 +47293,7 @@
       </c>
       <c r="H625" s="5"/>
       <c r="I625" s="5" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="J625" s="5"/>
       <c r="K625">
@@ -47348,10 +47344,10 @@
     </row>
     <row r="626" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A626" s="5" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B626" s="5" t="s">
         <v>1745</v>
-      </c>
-      <c r="B626" s="5" t="s">
-        <v>1746</v>
       </c>
       <c r="C626" s="5" t="s">
         <v>58</v>
@@ -47396,7 +47392,7 @@
         <v>5</v>
       </c>
       <c r="R626" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="S626">
         <v>444</v>
@@ -47405,7 +47401,7 @@
         <v>25</v>
       </c>
       <c r="U626" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="V626">
         <v>9.0809999999999995</v>
@@ -47422,10 +47418,10 @@
     </row>
     <row r="627" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A627" s="5" t="s">
+        <v>1747</v>
+      </c>
+      <c r="B627" s="5" t="s">
         <v>1748</v>
-      </c>
-      <c r="B627" s="5" t="s">
-        <v>1749</v>
       </c>
       <c r="C627" s="5" t="s">
         <v>58</v>
@@ -47470,7 +47466,7 @@
         <v>5</v>
       </c>
       <c r="R627" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="S627">
         <v>442</v>
@@ -47496,10 +47492,10 @@
     </row>
     <row r="628" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A628" s="5" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B628" s="5" t="s">
         <v>1751</v>
-      </c>
-      <c r="B628" s="5" t="s">
-        <v>1752</v>
       </c>
       <c r="C628" s="5" t="s">
         <v>58</v>
@@ -47553,7 +47549,7 @@
         <v>25</v>
       </c>
       <c r="U628" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="V628">
         <v>9.7010000000000005</v>
@@ -47570,10 +47566,10 @@
     </row>
     <row r="629" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A629" s="5" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B629" s="5" t="s">
         <v>1753</v>
-      </c>
-      <c r="B629" s="5" t="s">
-        <v>1754</v>
       </c>
       <c r="C629" s="5" t="s">
         <v>58</v>
@@ -47644,10 +47640,10 @@
     </row>
     <row r="630" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A630" s="5" t="s">
+        <v>1754</v>
+      </c>
+      <c r="B630" s="5" t="s">
         <v>1755</v>
-      </c>
-      <c r="B630" s="5" t="s">
-        <v>1756</v>
       </c>
       <c r="C630" s="5" t="s">
         <v>58</v>
@@ -47689,7 +47685,7 @@
         <v>5</v>
       </c>
       <c r="R630" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="S630">
         <v>442</v>
@@ -47715,10 +47711,10 @@
     </row>
     <row r="631" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A631" s="5" t="s">
+        <v>1757</v>
+      </c>
+      <c r="B631" s="5" t="s">
         <v>1758</v>
-      </c>
-      <c r="B631" s="5" t="s">
-        <v>1759</v>
       </c>
       <c r="C631" s="5" t="s">
         <v>58</v>
@@ -47763,7 +47759,7 @@
         <v>5</v>
       </c>
       <c r="R631" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="S631">
         <v>443</v>
@@ -47789,10 +47785,10 @@
     </row>
     <row r="632" spans="1:25" ht="58" x14ac:dyDescent="0.35">
       <c r="A632" s="5" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B632" s="5" t="s">
         <v>1761</v>
-      </c>
-      <c r="B632" s="5" t="s">
-        <v>1762</v>
       </c>
       <c r="C632" s="5" t="s">
         <v>58</v>
@@ -47828,7 +47824,7 @@
         <v>5</v>
       </c>
       <c r="R632" s="1" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="S632">
         <v>442</v>
@@ -47854,10 +47850,10 @@
     </row>
     <row r="633" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A633" s="5" t="s">
+        <v>1763</v>
+      </c>
+      <c r="B633" s="5" t="s">
         <v>1764</v>
-      </c>
-      <c r="B633" s="5" t="s">
-        <v>1765</v>
       </c>
       <c r="C633" s="5" t="s">
         <v>58</v>
@@ -47922,10 +47918,10 @@
     </row>
     <row r="634" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A634" s="5" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B634" s="17" t="s">
         <v>1766</v>
-      </c>
-      <c r="B634" s="17" t="s">
-        <v>1767</v>
       </c>
       <c r="C634" s="5" t="s">
         <v>58</v>
@@ -47970,7 +47966,7 @@
         <v>5</v>
       </c>
       <c r="R634" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="S634">
         <v>425</v>
@@ -47996,10 +47992,10 @@
     </row>
     <row r="635" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A635" s="5" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B635" s="5" t="s">
         <v>1769</v>
-      </c>
-      <c r="B635" s="5" t="s">
-        <v>1770</v>
       </c>
       <c r="C635" s="5" t="s">
         <v>58</v>
@@ -48017,7 +48013,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="I635" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="K635">
         <v>103</v>
@@ -48067,10 +48063,10 @@
     </row>
     <row r="636" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A636" s="5" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B636" s="5" t="s">
         <v>1771</v>
-      </c>
-      <c r="B636" s="5" t="s">
-        <v>1772</v>
       </c>
       <c r="C636" s="5" t="s">
         <v>58</v>
@@ -48086,7 +48082,7 @@
       </c>
       <c r="H636" s="5"/>
       <c r="I636" s="5" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="J636" s="5"/>
       <c r="K636">
@@ -48137,10 +48133,10 @@
     </row>
     <row r="637" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A637" s="5" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B637" s="16" t="s">
         <v>1773</v>
-      </c>
-      <c r="B637" s="16" t="s">
-        <v>1774</v>
       </c>
       <c r="C637" s="5" t="s">
         <v>58</v>
@@ -48176,10 +48172,10 @@
         <v>6</v>
       </c>
       <c r="Q637" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="R637" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="S637">
         <v>442</v>
@@ -48188,7 +48184,7 @@
         <v>25</v>
       </c>
       <c r="U637" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="V637">
         <v>9.1989999999999998</v>
@@ -48205,10 +48201,10 @@
     </row>
     <row r="638" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A638" s="5" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B638" s="5" t="s">
         <v>1777</v>
-      </c>
-      <c r="B638" s="5" t="s">
-        <v>1778</v>
       </c>
       <c r="C638" s="5" t="s">
         <v>58</v>
@@ -48250,7 +48246,7 @@
         <v>5</v>
       </c>
       <c r="R638" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="S638">
         <v>442</v>
@@ -48276,10 +48272,10 @@
     </row>
     <row r="639" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A639" s="5" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B639" s="5" t="s">
         <v>1779</v>
-      </c>
-      <c r="B639" s="5" t="s">
-        <v>1780</v>
       </c>
       <c r="C639" s="5" t="s">
         <v>58</v>
@@ -48318,7 +48314,7 @@
         <v>5</v>
       </c>
       <c r="R639" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="S639">
         <v>442</v>
@@ -48344,10 +48340,10 @@
     </row>
     <row r="640" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A640" s="5" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B640" s="5" t="s">
         <v>1781</v>
-      </c>
-      <c r="B640" s="5" t="s">
-        <v>1782</v>
       </c>
       <c r="C640" s="5" t="s">
         <v>58</v>
@@ -48418,10 +48414,10 @@
     </row>
     <row r="641" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A641" s="5" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B641" s="5" t="s">
         <v>1783</v>
-      </c>
-      <c r="B641" s="5" t="s">
-        <v>1784</v>
       </c>
       <c r="C641" s="5" t="s">
         <v>58</v>
@@ -48466,7 +48462,7 @@
         <v>5</v>
       </c>
       <c r="R641" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="S641">
         <v>441</v>
@@ -48492,10 +48488,10 @@
     </row>
     <row r="642" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A642" s="5" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B642" s="5" t="s">
         <v>1785</v>
-      </c>
-      <c r="B642" s="5" t="s">
-        <v>1786</v>
       </c>
       <c r="C642" s="5" t="s">
         <v>58</v>
@@ -48511,7 +48507,7 @@
       </c>
       <c r="H642" s="5"/>
       <c r="I642" s="5" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="J642" s="5"/>
       <c r="K642">
@@ -48536,7 +48532,7 @@
         <v>5</v>
       </c>
       <c r="R642" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="S642">
         <v>443</v>
@@ -48562,10 +48558,10 @@
     </row>
     <row r="643" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A643" s="5" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B643" s="5" t="s">
         <v>1788</v>
-      </c>
-      <c r="B643" s="5" t="s">
-        <v>1789</v>
       </c>
       <c r="C643" s="5" t="s">
         <v>58</v>
@@ -48636,10 +48632,10 @@
     </row>
     <row r="644" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A644" s="5" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B644" s="5" t="s">
         <v>1790</v>
-      </c>
-      <c r="B644" s="5" t="s">
-        <v>1791</v>
       </c>
       <c r="C644" s="5" t="s">
         <v>58</v>
@@ -48684,7 +48680,7 @@
         <v>5</v>
       </c>
       <c r="R644" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="S644">
         <v>442</v>
@@ -48710,10 +48706,10 @@
     </row>
     <row r="645" spans="1:27" ht="29" x14ac:dyDescent="0.35">
       <c r="A645" s="5" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B645" s="5" t="s">
         <v>1793</v>
-      </c>
-      <c r="B645" s="5" t="s">
-        <v>1794</v>
       </c>
       <c r="C645" s="5" t="s">
         <v>58</v>
@@ -48758,7 +48754,7 @@
         <v>5</v>
       </c>
       <c r="R645" s="1" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="S645">
         <v>442</v>
@@ -48784,10 +48780,10 @@
     </row>
     <row r="646" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A646" s="5" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B646" s="5" t="s">
         <v>1796</v>
-      </c>
-      <c r="B646" s="5" t="s">
-        <v>1797</v>
       </c>
       <c r="C646" s="5" t="s">
         <v>58</v>
@@ -48858,10 +48854,10 @@
     </row>
     <row r="647" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A647" s="5" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B647" s="5" t="s">
         <v>1798</v>
-      </c>
-      <c r="B647" s="5" t="s">
-        <v>1799</v>
       </c>
       <c r="C647" s="5" t="s">
         <v>58</v>
@@ -48932,10 +48928,10 @@
     </row>
     <row r="648" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A648" s="5" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B648" s="5" t="s">
         <v>1800</v>
-      </c>
-      <c r="B648" s="5" t="s">
-        <v>1801</v>
       </c>
       <c r="C648" s="5" t="s">
         <v>58</v>
@@ -48976,7 +48972,7 @@
         <v>6</v>
       </c>
       <c r="R648" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="S648">
         <v>432</v>
@@ -48985,7 +48981,7 @@
         <v>25</v>
       </c>
       <c r="U648" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="V648">
         <v>9.6760000000000002</v>
@@ -49002,10 +48998,10 @@
     </row>
     <row r="649" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A649" s="5" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B649" s="5" t="s">
         <v>1804</v>
-      </c>
-      <c r="B649" s="5" t="s">
-        <v>1805</v>
       </c>
       <c r="C649" s="5" t="s">
         <v>58</v>
@@ -49074,10 +49070,10 @@
     </row>
     <row r="650" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A650" s="5" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B650" s="5" t="s">
         <v>1806</v>
-      </c>
-      <c r="B650" s="5" t="s">
-        <v>1807</v>
       </c>
       <c r="C650" s="5" t="s">
         <v>58</v>
@@ -49146,10 +49142,10 @@
     </row>
     <row r="651" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A651" s="5" t="s">
+        <v>1807</v>
+      </c>
+      <c r="B651" s="5" t="s">
         <v>1808</v>
-      </c>
-      <c r="B651" s="5" t="s">
-        <v>1809</v>
       </c>
       <c r="C651" s="5" t="s">
         <v>58</v>
@@ -49214,10 +49210,10 @@
     </row>
     <row r="652" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A652" s="5" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B652" s="5" t="s">
         <v>1816</v>
-      </c>
-      <c r="B652" s="5" t="s">
-        <v>1817</v>
       </c>
       <c r="C652" s="5" t="s">
         <v>58</v>
@@ -49288,10 +49284,10 @@
     </row>
     <row r="653" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A653" s="5" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B653" s="5" t="s">
         <v>1818</v>
-      </c>
-      <c r="B653" s="5" t="s">
-        <v>1819</v>
       </c>
       <c r="C653" s="5" t="s">
         <v>58</v>
@@ -49356,10 +49352,10 @@
     </row>
     <row r="654" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A654" s="5" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B654" s="5" t="s">
         <v>1820</v>
-      </c>
-      <c r="B654" s="5" t="s">
-        <v>1821</v>
       </c>
       <c r="C654" s="5" t="s">
         <v>58</v>
@@ -49430,10 +49426,10 @@
     </row>
     <row r="655" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A655" s="5" t="s">
+        <v>1821</v>
+      </c>
+      <c r="B655" s="5" t="s">
         <v>1822</v>
-      </c>
-      <c r="B655" s="5" t="s">
-        <v>1823</v>
       </c>
       <c r="C655" s="5" t="s">
         <v>58</v>
@@ -49478,7 +49474,7 @@
         <v>5</v>
       </c>
       <c r="R655" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="S655">
         <v>432</v>
@@ -49496,7 +49492,7 @@
         <v>6</v>
       </c>
       <c r="Z655" s="4" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="AA655" s="4">
         <v>9.6679999999999993</v>
@@ -49504,10 +49500,10 @@
     </row>
     <row r="656" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A656" s="5" t="s">
+        <v>1825</v>
+      </c>
+      <c r="B656" s="5" t="s">
         <v>1826</v>
-      </c>
-      <c r="B656" s="5" t="s">
-        <v>1827</v>
       </c>
       <c r="C656" s="5" t="s">
         <v>58</v>
@@ -49525,7 +49521,7 @@
         <v>16.7</v>
       </c>
       <c r="I656" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="K656">
         <v>120</v>
@@ -49575,10 +49571,10 @@
     </row>
     <row r="657" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A657" s="5" t="s">
+        <v>1827</v>
+      </c>
+      <c r="B657" s="5" t="s">
         <v>1828</v>
-      </c>
-      <c r="B657" s="5" t="s">
-        <v>1829</v>
       </c>
       <c r="C657" s="5" t="s">
         <v>58</v>
@@ -49649,10 +49645,10 @@
     </row>
     <row r="658" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A658" s="5" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B658" s="5" t="s">
         <v>1830</v>
-      </c>
-      <c r="B658" s="5" t="s">
-        <v>1831</v>
       </c>
       <c r="C658" s="5" t="s">
         <v>58</v>
@@ -49670,7 +49666,7 @@
         <v>0</v>
       </c>
       <c r="I658" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="K658">
         <v>86</v>
@@ -49694,7 +49690,7 @@
         <v>5</v>
       </c>
       <c r="R658" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="S658">
         <v>442</v>
@@ -49720,10 +49716,10 @@
     </row>
     <row r="659" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A659" s="5" t="s">
+        <v>1832</v>
+      </c>
+      <c r="B659" s="5" t="s">
         <v>1833</v>
-      </c>
-      <c r="B659" s="5" t="s">
-        <v>1834</v>
       </c>
       <c r="C659" s="5" t="s">
         <v>58</v>
@@ -49758,7 +49754,7 @@
         <v>5</v>
       </c>
       <c r="R659" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="S659">
         <v>442</v>
@@ -49767,7 +49763,7 @@
         <v>25</v>
       </c>
       <c r="U659" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="V659">
         <v>9.09</v>
@@ -49784,10 +49780,10 @@
     </row>
     <row r="660" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A660" s="5" t="s">
+        <v>1836</v>
+      </c>
+      <c r="B660" s="5" t="s">
         <v>1837</v>
-      </c>
-      <c r="B660" s="5" t="s">
-        <v>1838</v>
       </c>
       <c r="C660" s="5" t="s">
         <v>58</v>
@@ -49855,10 +49851,10 @@
     </row>
     <row r="661" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A661" s="5" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B661" s="5" t="s">
         <v>1839</v>
-      </c>
-      <c r="B661" s="5" t="s">
-        <v>1840</v>
       </c>
       <c r="C661" s="5" t="s">
         <v>58</v>
@@ -49897,7 +49893,7 @@
         <v>5</v>
       </c>
       <c r="R661" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="S661">
         <v>442</v>
@@ -49926,10 +49922,10 @@
     </row>
     <row r="662" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A662" s="5" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B662" s="5" t="s">
         <v>1841</v>
-      </c>
-      <c r="B662" s="5" t="s">
-        <v>1842</v>
       </c>
       <c r="C662" s="5" t="s">
         <v>58</v>
@@ -49997,10 +49993,10 @@
     </row>
     <row r="663" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A663" s="21" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="B663" s="21" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="C663" s="21" t="s">
         <v>58</v>
@@ -50046,7 +50042,7 @@
         <v>5</v>
       </c>
       <c r="R663" s="21" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="S663" s="21">
         <v>443</v>
@@ -50078,10 +50074,10 @@
     </row>
     <row r="664" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A664" s="5" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B664" s="5" t="s">
         <v>1846</v>
-      </c>
-      <c r="B664" s="5" t="s">
-        <v>1847</v>
       </c>
       <c r="C664" s="5" t="s">
         <v>58</v>
@@ -50102,7 +50098,7 @@
         <v>64.3</v>
       </c>
       <c r="I664" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="K664">
         <v>97</v>
@@ -50126,7 +50122,7 @@
         <v>5</v>
       </c>
       <c r="R664" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="S664">
         <v>440</v>
@@ -50135,7 +50131,7 @@
         <v>25</v>
       </c>
       <c r="U664" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="V664">
         <v>9.3689999999999998</v>
@@ -50161,10 +50157,10 @@
     </row>
     <row r="665" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A665" s="5" t="s">
+        <v>1851</v>
+      </c>
+      <c r="B665" s="5" t="s">
         <v>1852</v>
-      </c>
-      <c r="B665" s="5" t="s">
-        <v>1853</v>
       </c>
       <c r="C665" s="5" t="s">
         <v>58</v>
@@ -50230,10 +50226,10 @@
     </row>
     <row r="666" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A666" s="5" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B666" s="5" t="s">
         <v>1854</v>
-      </c>
-      <c r="B666" s="5" t="s">
-        <v>1855</v>
       </c>
       <c r="C666" s="5" t="s">
         <v>58</v>
@@ -50313,10 +50309,10 @@
     </row>
     <row r="667" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A667" s="5" t="s">
+        <v>1855</v>
+      </c>
+      <c r="B667" s="5" t="s">
         <v>1856</v>
-      </c>
-      <c r="B667" s="5" t="s">
-        <v>1857</v>
       </c>
       <c r="C667" s="5" t="s">
         <v>58</v>
@@ -50370,7 +50366,7 @@
         <v>25</v>
       </c>
       <c r="U667" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="V667">
         <v>8.9710000000000001</v>
@@ -50396,10 +50392,10 @@
     </row>
     <row r="668" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A668" s="5" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B668" s="5" t="s">
         <v>1859</v>
-      </c>
-      <c r="B668" s="5" t="s">
-        <v>1860</v>
       </c>
       <c r="C668" s="5" t="s">
         <v>58</v>
@@ -50417,7 +50413,7 @@
         <v>25</v>
       </c>
       <c r="I668" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="K668">
         <v>98</v>
@@ -50441,7 +50437,7 @@
         <v>5</v>
       </c>
       <c r="R668" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="S668">
         <v>442</v>
@@ -50476,10 +50472,10 @@
     </row>
     <row r="669" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A669" s="5" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B669" s="5" t="s">
         <v>1861</v>
-      </c>
-      <c r="B669" s="5" t="s">
-        <v>1862</v>
       </c>
       <c r="C669" s="5" t="s">
         <v>58</v>
@@ -50559,10 +50555,10 @@
     </row>
     <row r="670" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A670" s="5" t="s">
+        <v>1862</v>
+      </c>
+      <c r="B670" s="5" t="s">
         <v>1863</v>
-      </c>
-      <c r="B670" s="5" t="s">
-        <v>1864</v>
       </c>
       <c r="C670" s="5" t="s">
         <v>58</v>
@@ -50636,10 +50632,10 @@
     </row>
     <row r="671" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A671" s="5" t="s">
+        <v>1864</v>
+      </c>
+      <c r="B671" s="5" t="s">
         <v>1865</v>
-      </c>
-      <c r="B671" s="5" t="s">
-        <v>1866</v>
       </c>
       <c r="C671" s="5" t="s">
         <v>58</v>
@@ -50657,7 +50653,7 @@
         <v>57</v>
       </c>
       <c r="I671" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="K671">
         <v>70</v>
@@ -50681,7 +50677,7 @@
         <v>5</v>
       </c>
       <c r="R671" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="S671">
         <v>443</v>
@@ -50716,10 +50712,10 @@
     </row>
     <row r="672" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A672" s="5" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="B672" s="10" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="C672" s="5" t="s">
         <v>58</v>
@@ -50758,7 +50754,7 @@
         <v>5</v>
       </c>
       <c r="R672" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="S672">
         <v>441</v>
@@ -50793,10 +50789,10 @@
     </row>
     <row r="673" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A673" s="5" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B673" s="5" t="s">
         <v>1872</v>
-      </c>
-      <c r="B673" s="5" t="s">
-        <v>1873</v>
       </c>
       <c r="C673" s="5" t="s">
         <v>58</v>
@@ -50870,10 +50866,10 @@
     </row>
     <row r="674" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A674" s="5" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B674" s="5" t="s">
         <v>1874</v>
-      </c>
-      <c r="B674" s="5" t="s">
-        <v>1875</v>
       </c>
       <c r="C674" s="5" t="s">
         <v>58</v>
@@ -50927,7 +50923,7 @@
         <v>25</v>
       </c>
       <c r="U674" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="V674">
         <v>10.026</v>
@@ -50953,10 +50949,10 @@
     </row>
     <row r="675" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A675" s="5" t="s">
+        <v>1876</v>
+      </c>
+      <c r="B675" s="5" t="s">
         <v>1877</v>
-      </c>
-      <c r="B675" s="5" t="s">
-        <v>1878</v>
       </c>
       <c r="C675" s="5" t="s">
         <v>58</v>
@@ -50977,7 +50973,7 @@
         <v>33</v>
       </c>
       <c r="I675" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="K675">
         <v>90</v>
@@ -51001,7 +50997,7 @@
         <v>5</v>
       </c>
       <c r="R675" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="S675">
         <v>431</v>
@@ -51010,7 +51006,7 @@
         <v>25</v>
       </c>
       <c r="U675" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="V675">
         <v>9.4130000000000003</v>
@@ -51036,10 +51032,10 @@
     </row>
     <row r="676" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A676" s="5" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B676" s="5" t="s">
         <v>1882</v>
-      </c>
-      <c r="B676" s="5" t="s">
-        <v>1883</v>
       </c>
       <c r="C676" s="5" t="s">
         <v>58</v>
@@ -51084,7 +51080,7 @@
         <v>5</v>
       </c>
       <c r="R676" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="S676">
         <v>434</v>
@@ -51119,10 +51115,10 @@
     </row>
     <row r="677" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A677" s="5" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B677" s="5" t="s">
         <v>1884</v>
-      </c>
-      <c r="B677" s="5" t="s">
-        <v>1885</v>
       </c>
       <c r="C677" s="5" t="s">
         <v>58</v>
@@ -51161,7 +51157,7 @@
         <v>5</v>
       </c>
       <c r="R677" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="S677">
         <v>435</v>
@@ -51196,10 +51192,10 @@
     </row>
     <row r="678" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A678" s="5" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B678" s="5" t="s">
         <v>1886</v>
-      </c>
-      <c r="B678" s="5" t="s">
-        <v>1887</v>
       </c>
       <c r="C678" s="5" t="s">
         <v>58</v>
@@ -51241,7 +51237,7 @@
         <v>5</v>
       </c>
       <c r="R678" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="S678">
         <v>436</v>
@@ -51276,10 +51272,10 @@
     </row>
     <row r="679" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A679" s="5" t="s">
+        <v>1888</v>
+      </c>
+      <c r="B679" s="10" t="s">
         <v>1889</v>
-      </c>
-      <c r="B679" s="10" t="s">
-        <v>1890</v>
       </c>
       <c r="C679" s="5" t="s">
         <v>58</v>
@@ -51294,7 +51290,7 @@
         <v>17</v>
       </c>
       <c r="I679" s="7" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="J679" s="7"/>
       <c r="K679" s="7">
@@ -51319,7 +51315,7 @@
         <v>5</v>
       </c>
       <c r="R679" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="S679">
         <v>442</v>
@@ -51328,7 +51324,7 @@
         <v>25</v>
       </c>
       <c r="U679" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="V679">
         <v>10.042999999999999</v>
@@ -51354,10 +51350,10 @@
     </row>
     <row r="680" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A680" s="5" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B680" s="10" t="s">
         <v>1894</v>
-      </c>
-      <c r="B680" s="10" t="s">
-        <v>1895</v>
       </c>
       <c r="C680" s="5" t="s">
         <v>58</v>
@@ -51402,7 +51398,7 @@
         <v>5</v>
       </c>
       <c r="R680" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="S680">
         <v>443</v>
@@ -51437,10 +51433,10 @@
     </row>
     <row r="681" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A681" s="5" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B681" s="5" t="s">
         <v>1897</v>
-      </c>
-      <c r="B681" s="5" t="s">
-        <v>1898</v>
       </c>
       <c r="C681" s="5" t="s">
         <v>58</v>
@@ -51495,7 +51491,7 @@
         <v>25</v>
       </c>
       <c r="U681" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="V681">
         <v>10.268000000000001</v>
@@ -51521,10 +51517,10 @@
     </row>
     <row r="682" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A682" s="5" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B682" s="10" t="s">
         <v>1900</v>
-      </c>
-      <c r="B682" s="10" t="s">
-        <v>1901</v>
       </c>
       <c r="C682" s="5" t="s">
         <v>58</v>
@@ -51540,7 +51536,7 @@
       </c>
       <c r="H682" s="5"/>
       <c r="I682" s="5" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="J682" s="5"/>
       <c r="K682">
@@ -51565,7 +51561,7 @@
         <v>5</v>
       </c>
       <c r="R682" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="S682">
         <v>434</v>
@@ -51600,10 +51596,10 @@
     </row>
     <row r="683" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A683" s="5" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B683" t="s">
         <v>1902</v>
-      </c>
-      <c r="B683" t="s">
-        <v>1903</v>
       </c>
       <c r="C683" s="5" t="s">
         <v>58</v>
@@ -51621,7 +51617,7 @@
         <v>5.4</v>
       </c>
       <c r="J683" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="K683">
         <v>66</v>
@@ -51645,7 +51641,7 @@
         <v>5</v>
       </c>
       <c r="R683" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="S683">
         <v>436</v>
@@ -51680,10 +51676,10 @@
     </row>
     <row r="684" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A684" s="5" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="B684" s="22" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="C684" s="5" t="s">
         <v>58</v>
@@ -51722,7 +51718,7 @@
         <v>5</v>
       </c>
       <c r="R684" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="S684">
         <v>422</v>
@@ -51754,81 +51750,81 @@
     </row>
     <row r="685" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A685" s="5" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="B685" s="23" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="686" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B686" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="687" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B687" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="688" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B688" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="689" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B689" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="690" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B690" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="691" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B691" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="692" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B692" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="693" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B693" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="694" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B694" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="695" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B695" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="696" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B696" s="4" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="C696" s="4"/>
     </row>
     <row r="697" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B697" s="4" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="698" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B698" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="699" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B699" s="4" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="C699" s="4"/>
       <c r="D699" s="4"/>
@@ -51837,7 +51833,7 @@
       <c r="G699" s="4"/>
       <c r="H699" s="4"/>
       <c r="I699" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="J699" t="s">
         <v>712</v>
@@ -51845,793 +51841,793 @@
     </row>
     <row r="700" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B700" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="701" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B701" s="4" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="702" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B702" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="703" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B703" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="704" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B704" s="4" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="705" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B705" s="4" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="706" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B706" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="707" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B707" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="708" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B708" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="709" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B709" s="5" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="710" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B710" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="711" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B711" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="712" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B712" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="713" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B713" s="4" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="714" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B714" s="4" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="715" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B715" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="716" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B716" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="717" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B717" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="718" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B718" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="719" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B719" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="720" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B720" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="721" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B721" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="722" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B722" s="4" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="723" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B723" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="724" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B724" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="725" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B725" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="726" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B726" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="727" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B727" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="728" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B728" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="729" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B729" s="4" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="730" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B730" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="731" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B731" s="4" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="732" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B732" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="733" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B733" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="734" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B734" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="735" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B735" s="8" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="736" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B736" s="4" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="737" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B737" s="4" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="738" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B738" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="739" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B739" s="4" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="740" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B740" s="4" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="741" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B741" s="4" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="742" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B742" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="743" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B743" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="744" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B744" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="745" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B745" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="746" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B746" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="747" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B747" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="748" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B748" s="4" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="749" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B749" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="750" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B750" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="751" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B751" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="752" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B752" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="753" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B753" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="754" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B754" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="755" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B755" s="4" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="756" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B756" s="4" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="757" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B757" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="758" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B758" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="759" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B759" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="760" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B760" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="761" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B761" s="8" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="762" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B762" s="5" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="763" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B763" s="8" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="764" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B764" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="765" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B765" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="766" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B766" s="4" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="767" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B767" s="4" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="768" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B768" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="769" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B769" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="770" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B770" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="771" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B771" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="772" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B772" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="773" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B773" s="4" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="774" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B774" s="8" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="775" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B775" s="4" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="776" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B776" s="8" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="777" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B777" s="4" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="778" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B778" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="779" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B779" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="780" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B780" s="5" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="781" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B781" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="782" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B782" s="4" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="783" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B783" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="784" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B784" s="4" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="785" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B785" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="786" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B786" s="4" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="787" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B787" s="5" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="788" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B788" s="5" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="789" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B789" s="5" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="790" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B790" s="4" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="791" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B791" s="5" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="792" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B792" s="5" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="793" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B793" s="5" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="794" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B794" s="5" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="795" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B795" s="5" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="796" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B796" s="5" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="797" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B797" s="5" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="798" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B798" s="5" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="799" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B799" s="5" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="800" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B800" s="5" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="801" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B801" s="5" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="802" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B802" s="5" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="803" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B803" s="5" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="804" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B804" s="5" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="805" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B805" s="4" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="806" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B806" s="4" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="807" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B807" s="5" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="H807" s="5"/>
     </row>
     <row r="808" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B808" s="5" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="809" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B809" s="5" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="810" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B810" s="5" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="811" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B811" s="5" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="812" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B812" s="5" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="813" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B813" s="5" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="814" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B814" s="5" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="815" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B815" s="4" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="816" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B816" s="4" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="817" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B817" s="4" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="818" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B818" s="26" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="819" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B819" s="26" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="820" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B820" s="26" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="821" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B821" s="26" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="822" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B822" s="25" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="823" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B823" s="26" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="824" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B824" s="26" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="825" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B825" s="26" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="826" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B826" s="26" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="827" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B827" s="26" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="828" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B828" s="25" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="829" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B829" s="26" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="830" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B830" s="25" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="831" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B831" s="26" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="832" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B832" s="26" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="833" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B833" s="4" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="834" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B834" s="4" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="835" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B835" s="4" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="836" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B836" s="4" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="837" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B837" s="4" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="838" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B838" s="4" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="839" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B839" s="4" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="840" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B840" s="4" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="841" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B841" s="4" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="842" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B842" s="4" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="843" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B843" s="4" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="844" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B844" s="4" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="845" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B845" s="4" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="846" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B846" s="4" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="847" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B847" s="4" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="848" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B848" s="4" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="849" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B849" s="4" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="850" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B850" s="4" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="851" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B851" s="4" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="852" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B852" s="4" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="853" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B853" s="4" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="854" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B854" s="4" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="855" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B855" s="4" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="856" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B856" s="4" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="857" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B857" s="4" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="858" spans="2:2" x14ac:dyDescent="0.35">
@@ -52654,30 +52650,16 @@
     </row>
     <row r="864" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B864" s="24" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="874" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A874" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>